--- a/xlsx_test/test-spreadsheet2.xlsx
+++ b/xlsx_test/test-spreadsheet2.xlsx
@@ -1,29 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bkrepp.AD\process-bp-count-spreadsheets\xlsx_text\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bkrepp.AD\process-bp-count-spreadsheets\xlsx_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE6F944-6EA9-4C07-AA90-3F836AD73FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF5B5D7-BE84-4931-A578-15AB156BB889}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23256" yWindow="192" windowWidth="21600" windowHeight="11388" tabRatio="778" xr2:uid="{0C6062F5-86F8-4814-A110-428A3D225A11}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{0C6062F5-86F8-4814-A110-428A3D225A11}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
-    <sheet name="600-845 AM" sheetId="3" r:id="rId2"/>
-    <sheet name="900-1145 AM" sheetId="4" r:id="rId3"/>
-    <sheet name="1200-245 PM" sheetId="5" r:id="rId4"/>
-    <sheet name="300-545 PM" sheetId="6" r:id="rId5"/>
-    <sheet name="600-845 PM" sheetId="7" r:id="rId6"/>
-    <sheet name="900-1145 PM" sheetId="8" r:id="rId7"/>
-    <sheet name="1200-245 AM" sheetId="9" r:id="rId8"/>
-    <sheet name="300-545 AM" sheetId="10" r:id="rId9"/>
+    <sheet name="600-859 AM" sheetId="3" r:id="rId2"/>
+    <sheet name="900-1159 AM" sheetId="4" r:id="rId3"/>
+    <sheet name="1200-259 PM" sheetId="5" r:id="rId4"/>
+    <sheet name="300-559 PM" sheetId="6" r:id="rId5"/>
+    <sheet name="600-859 PM" sheetId="7" r:id="rId6"/>
+    <sheet name="900-1159 PM" sheetId="8" r:id="rId7"/>
+    <sheet name="1200-259 AM" sheetId="9" r:id="rId8"/>
+    <sheet name="300-559 AM" sheetId="10" r:id="rId9"/>
     <sheet name="Columns" sheetId="2" r:id="rId10"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Overview!$B$2:$R$40</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -45,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="573" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="561">
   <si>
     <t>Municipality</t>
   </si>
@@ -971,30 +974,12 @@
     <t>Sky Condition</t>
   </si>
   <si>
-    <t>Bicyclist</t>
-  </si>
-  <si>
     <t>Child in Carrier</t>
   </si>
   <si>
-    <t>Pedestrian</t>
-  </si>
-  <si>
-    <t>Jogger</t>
-  </si>
-  <si>
-    <t>Roller Blader/Skater</t>
-  </si>
-  <si>
-    <t>Wheelchair User</t>
-  </si>
-  <si>
     <t>Time</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>All</t>
   </si>
   <si>
@@ -1017,12 +1002,6 @@
   </si>
   <si>
     <t>Street #1</t>
-  </si>
-  <si>
-    <t>Street #1 Direction</t>
-  </si>
-  <si>
-    <t>Street #2 Direction</t>
   </si>
   <si>
     <t>Sunny</t>
@@ -1136,23 +1115,6 @@
     <t>Watertown Square - Charles River Rd / Mt. Auburn St / North Beacon St</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Bicycle/Pedestrian Facility Name
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>(if applicable)</t>
-    </r>
-  </si>
-  <si>
     <t>Ashland</t>
   </si>
   <si>
@@ -1366,12 +1328,6 @@
     <t>Wrentham</t>
   </si>
   <si>
-    <t>Bicycle/Pedestrian Facility Segment</t>
-  </si>
-  <si>
-    <t>Bicycle/Pedestrian Facility Intersection</t>
-  </si>
-  <si>
     <t>Street Segment</t>
   </si>
   <si>
@@ -1385,9 +1341,6 @@
   </si>
   <si>
     <t>Other (please type in cell below)</t>
-  </si>
-  <si>
-    <t>Bicycle/Pedestrian Facility Name</t>
   </si>
   <si>
     <t>Arthur Fiedler Footbridge</t>
@@ -1480,13 +1433,431 @@
     <t>Count ID</t>
   </si>
   <si>
+    <t>Person Bicycling</t>
+  </si>
+  <si>
+    <t>Person Walking</t>
+  </si>
+  <si>
+    <t>Person Jogging</t>
+  </si>
+  <si>
+    <t>Person Skating</t>
+  </si>
+  <si>
+    <t>Person using Wheelchair</t>
+  </si>
+  <si>
+    <t>How to count?</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Not Applicable</t>
+  </si>
+  <si>
+    <t>Stuart Street (east of Tremont Street)</t>
+  </si>
+  <si>
+    <t>North</t>
+  </si>
+  <si>
+    <t>East</t>
+  </si>
+  <si>
+    <t>South</t>
+  </si>
+  <si>
+    <t>West</t>
+  </si>
+  <si>
+    <t>North-East</t>
+  </si>
+  <si>
+    <t>South-East</t>
+  </si>
+  <si>
+    <t>South-West</t>
+  </si>
+  <si>
+    <t>North-West</t>
+  </si>
+  <si>
+    <r>
+      <t>Side of Street</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (if applicable)</t>
+    </r>
+  </si>
+  <si>
+    <t>Side of Street</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Bicycle-Pedestrian Facility Name
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(if applicable)</t>
+    </r>
+  </si>
+  <si>
+    <t>Bicycle-Pedestrian Facility Name</t>
+  </si>
+  <si>
+    <t>Bicycle-Pedestrian Facility Segment</t>
+  </si>
+  <si>
+    <t>Bicycle-Pedestrian Facility Intersection</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Street #1 Bicycle Travel Direction
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(select "All" if not applicable)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Street #2 Bicycle Travel Direction</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+(select "All" if not applicable)</t>
+    </r>
+  </si>
+  <si>
+    <t>6:00 AM - 6:14 AM</t>
+  </si>
+  <si>
+    <t>6:15 AM - 6:29 AM</t>
+  </si>
+  <si>
+    <t>6:30 AM - 6:44 AM</t>
+  </si>
+  <si>
+    <t>6:45 AM - 6:59 AM</t>
+  </si>
+  <si>
+    <t>7:00 AM - 7:14 AM</t>
+  </si>
+  <si>
+    <t>7:15 AM - 7:29 AM</t>
+  </si>
+  <si>
+    <t>7:30 AM - 7:44 AM</t>
+  </si>
+  <si>
+    <t>7:45 AM - 7:59 AM</t>
+  </si>
+  <si>
+    <t>8:00 AM - 8:14 AM</t>
+  </si>
+  <si>
+    <t>8:15 AM - 8:29 AM</t>
+  </si>
+  <si>
+    <t>8:30 AM - 8:44 AM</t>
+  </si>
+  <si>
+    <t>8:45 AM - 8:59 AM</t>
+  </si>
+  <si>
+    <t>9:00 AM - 9:14 AM</t>
+  </si>
+  <si>
+    <t>9:15 AM - 9:29 AM</t>
+  </si>
+  <si>
+    <t>9:30 AM - 9:44 AM</t>
+  </si>
+  <si>
+    <t>9:45 AM - 9:59 AM</t>
+  </si>
+  <si>
+    <t>10:00 AM - 10:14 AM</t>
+  </si>
+  <si>
+    <t>10:15 AM - 10:29 AM</t>
+  </si>
+  <si>
+    <t>10:30 AM - 10:44 AM</t>
+  </si>
+  <si>
+    <t>10:45 AM - 10:59 AM</t>
+  </si>
+  <si>
+    <t>11:00 AM - 11:14 AM</t>
+  </si>
+  <si>
+    <t>11:15 AM - 11:29 AM</t>
+  </si>
+  <si>
+    <t>11:30 AM - 11:44 AM</t>
+  </si>
+  <si>
+    <t>11:45 AM - 11:59 AM</t>
+  </si>
+  <si>
+    <t>12:00 PM - 12:14 PM</t>
+  </si>
+  <si>
+    <t>12:15 PM - 12:29 PM</t>
+  </si>
+  <si>
+    <t>12:30 PM - 12:44 PM</t>
+  </si>
+  <si>
+    <t>12:45 PM - 12:59 PM</t>
+  </si>
+  <si>
+    <t>1:00 PM - 1:14 PM</t>
+  </si>
+  <si>
+    <t>1:15 PM - 1:29 PM</t>
+  </si>
+  <si>
+    <t>1:30 PM - 1:44 PM</t>
+  </si>
+  <si>
+    <t>1:45 PM - 1:59 PM</t>
+  </si>
+  <si>
+    <t>2:00 PM - 2:14 PM</t>
+  </si>
+  <si>
+    <t>2:15 PM - 2:29 PM</t>
+  </si>
+  <si>
+    <t>2:30 PM - 2:44 PM</t>
+  </si>
+  <si>
+    <t>2:45 PM - 2:59 PM</t>
+  </si>
+  <si>
+    <t>3:00 PM - 3:14 PM</t>
+  </si>
+  <si>
+    <t>3:15 PM - 3:29 PM</t>
+  </si>
+  <si>
+    <t>3:30 PM - 3:44 PM</t>
+  </si>
+  <si>
+    <t>3:45 PM - 3:59 PM</t>
+  </si>
+  <si>
+    <t>4:00 PM - 4:14 PM</t>
+  </si>
+  <si>
+    <t>4:15 PM - 4:29 PM</t>
+  </si>
+  <si>
+    <t>4:30 PM - 4:44 PM</t>
+  </si>
+  <si>
+    <t>4:45 PM - 4:59 PM</t>
+  </si>
+  <si>
+    <t>5:00 PM - 5:14 PM</t>
+  </si>
+  <si>
+    <t>5:15 PM - 5:29 PM</t>
+  </si>
+  <si>
+    <t>5:30 PM - 5:44 PM</t>
+  </si>
+  <si>
+    <t>5:45 PM - 5:59 PM</t>
+  </si>
+  <si>
+    <t>6:00 PM - 6:14 PM</t>
+  </si>
+  <si>
+    <t>6:15 PM - 6:29 PM</t>
+  </si>
+  <si>
+    <t>6:30 PM - 6:44 PM</t>
+  </si>
+  <si>
+    <t>6:45 PM - 6:59 PM</t>
+  </si>
+  <si>
+    <t>7:00 PM - 7:14 PM</t>
+  </si>
+  <si>
+    <t>7:15 PM - 7:29 PM</t>
+  </si>
+  <si>
+    <t>7:30 PM - 7:44 PM</t>
+  </si>
+  <si>
+    <t>7:45 PM - 7:59 PM</t>
+  </si>
+  <si>
+    <t>8:00 PM - 8:14 PM</t>
+  </si>
+  <si>
+    <t>8:15 PM - 8:29 PM</t>
+  </si>
+  <si>
+    <t>8:30 PM - 8:44 PM</t>
+  </si>
+  <si>
+    <t>8:45 PM - 8:59 PM</t>
+  </si>
+  <si>
+    <t>9:00 PM - 9:14 PM</t>
+  </si>
+  <si>
+    <t>9:15 PM - 9:29 PM</t>
+  </si>
+  <si>
+    <t>9:30 PM - 9:44 PM</t>
+  </si>
+  <si>
+    <t>9:45 PM - 9:59 PM</t>
+  </si>
+  <si>
+    <t>10:00 PM - 10:14 PM</t>
+  </si>
+  <si>
+    <t>10:15 PM - 10:29 PM</t>
+  </si>
+  <si>
+    <t>10:30 PM - 10:44 PM</t>
+  </si>
+  <si>
+    <t>10:45 PM - 10:59 PM</t>
+  </si>
+  <si>
+    <t>11:00 PM - 11:14 PM</t>
+  </si>
+  <si>
+    <t>11:15 PM - 11:29 PM</t>
+  </si>
+  <si>
+    <t>11:30 PM - 11:44 PM</t>
+  </si>
+  <si>
+    <t>11:45 PM - 11:59 PM</t>
+  </si>
+  <si>
+    <t>12:00 AM - 12:14 AM</t>
+  </si>
+  <si>
+    <t>12:15 AM - 12:29 AM</t>
+  </si>
+  <si>
+    <t>12:30 AM - 12:44 AM</t>
+  </si>
+  <si>
+    <t>12:45 AM - 12:59 AM</t>
+  </si>
+  <si>
+    <t>1:00 AM - 1:14 AM</t>
+  </si>
+  <si>
+    <t>1:15 AM - 1:29 AM</t>
+  </si>
+  <si>
+    <t>1:30 AM - 1:44 AM</t>
+  </si>
+  <si>
+    <t>1:45 AM - 1:59 AM</t>
+  </si>
+  <si>
+    <t>2:00 AM - 2:14 AM</t>
+  </si>
+  <si>
+    <t>2:15 AM - 2:29 AM</t>
+  </si>
+  <si>
+    <t>2:30 AM - 2:44 AM</t>
+  </si>
+  <si>
+    <t>2:45 AM - 2:59 AM</t>
+  </si>
+  <si>
+    <t>3:00 AM - 3:14 AM</t>
+  </si>
+  <si>
+    <t>3:15 AM - 3:29 AM</t>
+  </si>
+  <si>
+    <t>3:30 AM - 3:44 AM</t>
+  </si>
+  <si>
+    <t>3:45 AM - 3:59 AM</t>
+  </si>
+  <si>
+    <t>4:00 AM - 4:14 AM</t>
+  </si>
+  <si>
+    <t>4:15 AM - 4:29 AM</t>
+  </si>
+  <si>
+    <t>4:30 AM - 4:44 AM</t>
+  </si>
+  <si>
+    <t>4:45 AM - 4:59 AM</t>
+  </si>
+  <si>
+    <t>5:00 AM - 5:14 AM</t>
+  </si>
+  <si>
+    <t>5:15 AM - 5:29 AM</t>
+  </si>
+  <si>
+    <t>5:30 AM - 5:44 AM</t>
+  </si>
+  <si>
+    <t>5:45 AM - 5:59 AM</t>
+  </si>
+  <si>
+    <t>98765-2023-11-07-v1</t>
+  </si>
+  <si>
     <t>This is test input spreadsheet #2.</t>
   </si>
   <si>
-    <t>98765-2023-11-07-v1</t>
-  </si>
-  <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -1569,7 +1940,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -1704,21 +2075,95 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1726,20 +2171,8 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1747,8 +2180,58 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1757,43 +2240,102 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1810,23 +2352,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19052</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1024890</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>187181</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>296745</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
+        <xdr:cNvPr id="3" name="Picture 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAABE6CA-60E8-4596-81DA-1B980582C82C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12A1EF25-89FE-4BE8-9066-32B337AA9219}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1849,69 +2391,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="123825" y="2743200"/>
-          <a:ext cx="6924675" cy="2652251"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>19051</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>28576</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1558290</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>148339</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{12A1EF25-89FE-4BE8-9066-32B337AA9219}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="114301" y="5429251"/>
-          <a:ext cx="4686299" cy="2392428"/>
+          <a:off x="7205135" y="5527676"/>
+          <a:ext cx="4468693" cy="2276474"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1935,28 +2416,77 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1552576</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>28578</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>491490</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>148769</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>27116</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3">
+        <xdr:cNvPr id="8" name="Picture 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FE7C417-43F9-4654-A806-8D594C92CB7B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B9E5A4B-8A61-B987-2639-E4F3BF6E4531}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="4411" t="11327" r="6741" b="7642"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="123825" y="2990849"/>
+          <a:ext cx="6961316" cy="3571876"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>59767</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{828D1B6D-75C5-DFBD-A9AA-5EB72A8C5EDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -1967,32 +2497,21 @@
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
+      <xdr:spPr>
         <a:xfrm>
-          <a:off x="4810126" y="5429253"/>
-          <a:ext cx="4600574" cy="2392856"/>
+          <a:off x="7200900" y="3190875"/>
+          <a:ext cx="4467225" cy="2326717"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill/>
         <a:ln>
           <a:noFill/>
         </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -2001,25 +2520,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D2B3E971-B8C7-4B79-BC1B-A43E54AECF86}" name="Table3" displayName="Table3" ref="A1:C123" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D2B3E971-B8C7-4B79-BC1B-A43E54AECF86}" name="Table3" displayName="Table3" ref="A1:C123" totalsRowShown="0" headerRowDxfId="11" dataDxfId="10">
   <autoFilter ref="A1:C123" xr:uid="{D2B3E971-B8C7-4B79-BC1B-A43E54AECF86}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{2F9A7033-381A-410E-9EF0-DFBDB09A10AB}" name="Municipality"/>
-    <tableColumn id="3" xr3:uid="{0EEBDE74-E0D7-4752-BFF6-311CC4544913}" name="Location Type"/>
-    <tableColumn id="2" xr3:uid="{E1A8B30A-156D-44DA-BDBB-DBA94A808890}" name="Bicycle/Pedestrian Facility Name"/>
+    <tableColumn id="1" xr3:uid="{2F9A7033-381A-410E-9EF0-DFBDB09A10AB}" name="Municipality" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{0EEBDE74-E0D7-4752-BFF6-311CC4544913}" name="Location Type" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{E1A8B30A-156D-44DA-BDBB-DBA94A808890}" name="Bicycle-Pedestrian Facility Name" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7CCEC514-50DC-4567-BC60-8446CFB20D16}" name="Table5" displayName="Table5" ref="D1:G273" totalsRowShown="0">
-  <autoFilter ref="D1:G273" xr:uid="{7CCEC514-50DC-4567-BC60-8446CFB20D16}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{09935779-A7F4-4E95-BF0B-6D7F0A5AF862}" name="Count Location Description"/>
-    <tableColumn id="2" xr3:uid="{881AF884-5F10-4B59-94B7-B2F4180F93D0}" name="Location ID"/>
-    <tableColumn id="4" xr3:uid="{C9E4663B-CFA0-49B0-ABFE-EA028F045F02}" name="Sky"/>
-    <tableColumn id="5" xr3:uid="{DDD78CD7-2084-4F6C-8D99-B7CB3992BAA4}" name="Direction"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{7CCEC514-50DC-4567-BC60-8446CFB20D16}" name="Table5" displayName="Table5" ref="D1:H274" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="D1:H274" xr:uid="{7CCEC514-50DC-4567-BC60-8446CFB20D16}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{09935779-A7F4-4E95-BF0B-6D7F0A5AF862}" name="Count Location Description" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{881AF884-5F10-4B59-94B7-B2F4180F93D0}" name="Location ID" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{C9E4663B-CFA0-49B0-ABFE-EA028F045F02}" name="Sky" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{DDD78CD7-2084-4F6C-8D99-B7CB3992BAA4}" name="Direction" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{FCAE5D10-7413-4455-882A-92867F118E2C}" name="Side of Street" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2322,344 +2842,376 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D396DD5C-31B0-418A-83C6-51CCF2B5706A}">
-  <dimension ref="B1:R14"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:R15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12:E12"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13:E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="1.42578125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="14.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.42578125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="14.28515625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="26.140625" style="5" customWidth="1"/>
-    <col min="6" max="7" width="15.42578125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="6.140625" style="5" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="1.85546875" style="5" customWidth="1"/>
-    <col min="10" max="15" width="8.7109375" style="5"/>
-    <col min="16" max="16" width="1.28515625" style="5" customWidth="1"/>
-    <col min="17" max="17" width="9.140625" style="5" customWidth="1"/>
-    <col min="18" max="18" width="22.85546875" style="5" customWidth="1"/>
-    <col min="19" max="16384" width="8.7109375" style="5"/>
+    <col min="1" max="1" width="1.44140625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.44140625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.109375" style="2" customWidth="1"/>
+    <col min="6" max="7" width="15.44140625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="6.109375" style="2" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="1.88671875" style="2" customWidth="1"/>
+    <col min="10" max="15" width="8.6640625" style="2"/>
+    <col min="16" max="16" width="1.33203125" style="2" customWidth="1"/>
+    <col min="17" max="17" width="9.109375" style="2" customWidth="1"/>
+    <col min="18" max="18" width="9.33203125" style="2" customWidth="1"/>
+    <col min="19" max="16384" width="8.6640625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:18" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="6" t="s">
+    <row r="1" spans="2:18" ht="5.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B2" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="C2" s="7">
+      <c r="C2" s="39">
         <v>45237</v>
       </c>
-      <c r="D2" s="19" t="s">
-        <v>443</v>
-      </c>
-      <c r="E2" s="19"/>
-      <c r="F2" s="21" t="s">
-        <v>331</v>
-      </c>
-      <c r="G2" s="21"/>
-      <c r="H2" s="10"/>
-      <c r="J2" s="19" t="s">
+      <c r="D2" s="26" t="s">
+        <v>431</v>
+      </c>
+      <c r="E2" s="26"/>
+      <c r="F2" s="27" t="s">
+        <v>323</v>
+      </c>
+      <c r="G2" s="27"/>
+      <c r="H2" s="4"/>
+      <c r="J2" s="26" t="s">
         <v>304</v>
       </c>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="Q2" s="15" t="s">
-        <v>446</v>
-      </c>
-      <c r="R2" s="16"/>
-    </row>
-    <row r="3" spans="2:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="6" t="s">
+      <c r="K2" s="26"/>
+      <c r="L2" s="26"/>
+      <c r="M2" s="26"/>
+      <c r="N2" s="26"/>
+      <c r="O2" s="26"/>
+      <c r="Q2" s="24" t="s">
+        <v>434</v>
+      </c>
+      <c r="R2" s="25"/>
+    </row>
+    <row r="3" spans="2:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B3" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="10"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19"/>
-      <c r="M3" s="19"/>
-      <c r="N3" s="19"/>
-      <c r="O3" s="19"/>
-      <c r="Q3" s="12" t="s">
-        <v>447</v>
-      </c>
-      <c r="R3" s="5">
+      <c r="C3" s="1"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="4"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="26"/>
+      <c r="N3" s="26"/>
+      <c r="O3" s="26"/>
+      <c r="Q3" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="R3" s="2">
         <v>23456</v>
       </c>
     </row>
-    <row r="4" spans="2:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="6" t="s">
+    <row r="4" spans="2:18" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="10"/>
-      <c r="J4" s="22" t="s">
-        <v>449</v>
-      </c>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="Q4" s="13" t="s">
-        <v>448</v>
-      </c>
-      <c r="R4" s="14" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B5" s="18" t="s">
+      <c r="C4" s="40" t="s">
+        <v>318</v>
+      </c>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="4"/>
+      <c r="J4" s="28" t="s">
+        <v>558</v>
+      </c>
+      <c r="K4" s="29"/>
+      <c r="L4" s="29"/>
+      <c r="M4" s="29"/>
+      <c r="N4" s="29"/>
+      <c r="O4" s="30"/>
+      <c r="Q4" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="R4" s="38" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B5" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="20" t="s">
+      <c r="C5" s="19"/>
+      <c r="D5" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="26"/>
-      <c r="H5" s="1">
-        <f>VLOOKUP(D5,Columns!$D$3:$E$272,2,0)</f>
+      <c r="E5" s="17"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="15"/>
+      <c r="H5" s="7">
+        <f>VLOOKUP(D5,Columns!$D$3:$E$273,2,0)</f>
         <v>10528</v>
       </c>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-    </row>
-    <row r="6" spans="2:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="17" t="s">
-        <v>352</v>
-      </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="20" t="s">
-        <v>428</v>
-      </c>
-      <c r="E6" s="20"/>
-      <c r="F6" s="26" t="s">
-        <v>451</v>
-      </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="1"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-    </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="J5" s="31"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="33"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B6" s="22" t="s">
+        <v>453</v>
+      </c>
+      <c r="C6" s="23"/>
+      <c r="D6" s="16" t="s">
+        <v>445</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="7"/>
+      <c r="J6" s="31"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="33"/>
+    </row>
+    <row r="7" spans="2:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B7" s="18" t="s">
-        <v>323</v>
+        <v>455</v>
       </c>
       <c r="C7" s="18"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="1"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-    </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B8" s="18" t="s">
-        <v>324</v>
-      </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="20" t="s">
-        <v>316</v>
-      </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="H8" s="2"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-    </row>
-    <row r="9" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="17" t="s">
+      <c r="D7" s="16" t="s">
+        <v>417</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="14" t="s">
+        <v>559</v>
+      </c>
+      <c r="G7" s="15"/>
+      <c r="H7" s="7"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="33"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B8" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="C8" s="19"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="37"/>
+      <c r="G8" s="15"/>
+      <c r="H8" s="7"/>
+      <c r="J8" s="31"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="33"/>
+    </row>
+    <row r="9" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="18" t="s">
+        <v>459</v>
+      </c>
+      <c r="C9" s="19"/>
+      <c r="D9" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="8"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="O9" s="33"/>
+    </row>
+    <row r="10" spans="2:18" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="18" t="s">
+        <v>430</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="7"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="O10" s="33"/>
+    </row>
+    <row r="11" spans="2:18" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="18" t="s">
+        <v>460</v>
+      </c>
+      <c r="C11" s="19"/>
+      <c r="D11" s="16" t="s">
+        <v>310</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="8"/>
+      <c r="J11" s="31"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="O11" s="33"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B12" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="16" t="s">
+        <v>416</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="7"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="32"/>
+      <c r="N12" s="32"/>
+      <c r="O12" s="33"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B13" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="7"/>
+      <c r="J13" s="34"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="O13" s="36"/>
+    </row>
+    <row r="15" spans="2:18" ht="18" x14ac:dyDescent="0.3">
+      <c r="B15" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="J15" s="9" t="s">
         <v>442</v>
       </c>
-      <c r="C9" s="17"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="1"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-    </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B10" s="18" t="s">
-        <v>325</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="20" t="s">
-        <v>316</v>
-      </c>
-      <c r="E10" s="20"/>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="2"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-    </row>
-    <row r="11" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B11" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="20" t="s">
-        <v>427</v>
-      </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="1"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-    </row>
-    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B12" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="1"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-    </row>
-    <row r="14" spans="2:18" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
-        <v>445</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="27">
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="D5:E5"/>
+  <protectedRanges>
+    <protectedRange algorithmName="SHA-512" hashValue="Px4w0CG2wcmqaNW2TcVyHfbemic20OEj3KdWv4Ll3sFRk3GUNTeUXCsJL9Z8P6FPPHWGSr6f9mVxu/oE+AsWPQ==" saltValue="QzbFoTQDE9Mgzq+1dAtuag==" spinCount="100000" sqref="A14:XFD1048576 P4:XFD13 H5:I13 A5:C13 D4:I4 A4:B4 D3:XFD3 A3:B3 D2:XFD2 A2:B2 A1:XFD1" name="Overview Cells"/>
+  </protectedRanges>
+  <mergeCells count="30">
+    <mergeCell ref="Q2:R2"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="B8:C8"/>
-    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="J2:O3"/>
     <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F10:G10"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D2:E4"/>
+    <mergeCell ref="F2:G4"/>
+    <mergeCell ref="J4:O13"/>
+    <mergeCell ref="D8:G8"/>
+    <mergeCell ref="D10:G10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="D5:E5"/>
     <mergeCell ref="B11:C11"/>
-    <mergeCell ref="Q2:R2"/>
     <mergeCell ref="B9:C9"/>
     <mergeCell ref="B7:C7"/>
-    <mergeCell ref="J2:O3"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D2:E4"/>
-    <mergeCell ref="F2:G4"/>
-    <mergeCell ref="J4:O12"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="D6:E6"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="F6:G6"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3" xr:uid="{B33F18CB-4361-4EA4-89CA-2CFFDEBFD17B}">
       <formula1>-100</formula1>
       <formula2>120</formula2>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="D7:H7 D9:H9" xr:uid="{90E49F85-3C5D-4AFE-BE6F-92C7D2ED3A5A}"/>
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="D8:H8 D10:H10" xr:uid="{90E49F85-3C5D-4AFE-BE6F-92C7D2ED3A5A}"/>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup scale="69" orientation="landscape" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="6">
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{316155BF-F872-4EF0-A7D5-2C315FF2BB56}">
-          <x14:formula1>
-            <xm:f>Columns!$D$2:$D$272</xm:f>
-          </x14:formula1>
-          <xm:sqref>D5:E5</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{5083652B-750A-4C4D-B750-005AF92A196B}">
-          <x14:formula1>
-            <xm:f>Columns!$C$2:$C$37</xm:f>
-          </x14:formula1>
-          <xm:sqref>D6:E7</xm:sqref>
-        </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{58E12AA0-633A-41A0-A830-DA54E1AC4088}">
           <x14:formula1>
             <xm:f>Columns!$G$2:$G$7</xm:f>
           </x14:formula1>
-          <xm:sqref>D8:E10</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{300277EC-7D8D-4617-9225-79CC1A5F70F0}">
-          <x14:formula1>
-            <xm:f>Columns!$F$2:$F$7</xm:f>
-          </x14:formula1>
-          <xm:sqref>C4</xm:sqref>
+          <xm:sqref>D9:E11</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{DCAA5E98-3738-4009-8D12-E79DD2802E11}">
           <x14:formula1>
             <xm:f>Columns!$B$2:$B$6</xm:f>
           </x14:formula1>
-          <xm:sqref>D11:E11 D11:E11</xm:sqref>
+          <xm:sqref>D12:E12</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{E9B4B24B-D1FA-4151-8197-DA5E2D5B65FD}">
           <x14:formula1>
             <xm:f>Columns!$A$2:$A$99</xm:f>
           </x14:formula1>
-          <xm:sqref>D12:E12</xm:sqref>
+          <xm:sqref>D13:E13</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{5083652B-750A-4C4D-B750-005AF92A196B}">
+          <x14:formula1>
+            <xm:f>Columns!$C$2:$C$38</xm:f>
+          </x14:formula1>
+          <xm:sqref>D7:E8</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{316155BF-F872-4EF0-A7D5-2C315FF2BB56}">
+          <x14:formula1>
+            <xm:f>Columns!$D$2:$D$273</xm:f>
+          </x14:formula1>
+          <xm:sqref>D5:E5</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{9014F49A-8272-4734-A064-A291F9518768}">
+          <x14:formula1>
+            <xm:f>Columns!$H$2:$H$10</xm:f>
+          </x14:formula1>
+          <xm:sqref>D6:E6</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2669,25 +3221,25 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F92867D1-D2E9-42B4-B903-CE81613CFB5C}">
-  <dimension ref="A1:G272"/>
+  <dimension ref="A1:H273"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="84.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="33.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="84.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="33.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="33.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2695,2636 +3247,2677 @@
         <v>65</v>
       </c>
       <c r="C1" t="s">
-        <v>431</v>
+        <v>456</v>
       </c>
       <c r="D1" t="s">
         <v>66</v>
       </c>
       <c r="E1" t="s">
-        <v>444</v>
+        <v>432</v>
       </c>
       <c r="F1" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="G1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+        <v>316</v>
+      </c>
+      <c r="H1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="B2" t="s">
-        <v>424</v>
+        <v>457</v>
       </c>
       <c r="C2" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="D2" t="s">
-        <v>428</v>
+        <v>417</v>
       </c>
       <c r="F2" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="G2" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>310</v>
+      </c>
+      <c r="H2" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>425</v>
+        <v>458</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>443</v>
       </c>
       <c r="D3" t="s">
         <v>67</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="12">
         <v>20260</v>
       </c>
       <c r="F3" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="G3" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>311</v>
+      </c>
+      <c r="H3" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
         <v>68</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="12">
         <v>20240</v>
       </c>
       <c r="F4" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="G4" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>312</v>
+      </c>
+      <c r="H4" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="B5" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="C5" t="s">
-        <v>432</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="12">
         <v>20173</v>
       </c>
       <c r="F5" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="G5" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>313</v>
+      </c>
+      <c r="H5" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>420</v>
       </c>
       <c r="D6" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="12">
         <v>20179</v>
       </c>
       <c r="F6" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="G6" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>314</v>
+      </c>
+      <c r="H6" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" t="s">
-        <v>332</v>
-      </c>
-      <c r="E7" s="9">
+        <v>324</v>
+      </c>
+      <c r="E7" s="12">
         <v>20284</v>
       </c>
       <c r="F7" t="s">
-        <v>430</v>
+        <v>419</v>
       </c>
       <c r="G7" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>418</v>
+      </c>
+      <c r="H7" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D8" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="12">
         <v>20283</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="C9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="12">
         <v>20192</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="12">
         <v>20125</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H10" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>5</v>
       </c>
       <c r="C11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
         <v>73</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="12">
         <v>10037</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="C12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D12" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="9">
+      <c r="E12" s="12">
         <v>20047</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="C13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
         <v>75</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="12">
         <v>20001</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>6</v>
       </c>
       <c r="C14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="12">
         <v>20041</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="C15" t="s">
-        <v>433</v>
+        <v>40</v>
       </c>
       <c r="D15" t="s">
-        <v>333</v>
-      </c>
-      <c r="E15" s="9">
+        <v>325</v>
+      </c>
+      <c r="E15" s="12">
         <v>20276</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>42</v>
+        <v>421</v>
       </c>
       <c r="D16" t="s">
         <v>77</v>
       </c>
-      <c r="E16" s="9">
+      <c r="E16" s="12">
         <v>20063</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="C17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D17" t="s">
         <v>78</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="12">
         <v>10460</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
         <v>79</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="12">
         <v>20203</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="C19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D19" t="s">
         <v>80</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="12">
         <v>20211</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D20" t="s">
         <v>81</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="12">
         <v>20216</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="C21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D21" t="s">
         <v>82</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="12">
         <v>20206</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="C22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D22" t="s">
         <v>83</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22" s="12">
         <v>10528</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23" t="s">
         <v>84</v>
       </c>
-      <c r="E23" s="9">
+      <c r="E23" s="12">
         <v>20077</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D24" t="s">
         <v>85</v>
       </c>
-      <c r="E24" s="9">
+      <c r="E24" s="12">
         <v>20228</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D25" t="s">
         <v>86</v>
       </c>
-      <c r="E25" s="9">
+      <c r="E25" s="12">
         <v>20163</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D26" t="s">
         <v>87</v>
       </c>
-      <c r="E26" s="9">
+      <c r="E26" s="12">
         <v>20013</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D27" t="s">
         <v>88</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="12">
         <v>20218</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" t="s">
         <v>89</v>
       </c>
-      <c r="E28" s="9">
+      <c r="E28" s="12">
         <v>20257</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>434</v>
+        <v>56</v>
       </c>
       <c r="D29" t="s">
         <v>90</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="12">
         <v>20251</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>59</v>
+        <v>422</v>
       </c>
       <c r="D30" t="s">
         <v>91</v>
       </c>
-      <c r="E30" s="9">
+      <c r="E30" s="12">
         <v>20038</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>370</v>
+        <v>361</v>
       </c>
       <c r="C31" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" t="s">
+        <v>326</v>
+      </c>
+      <c r="E31" s="12">
+        <v>20134</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>362</v>
+      </c>
+      <c r="C32" t="s">
         <v>60</v>
-      </c>
-      <c r="D31" t="s">
-        <v>334</v>
-      </c>
-      <c r="E31" s="9">
-        <v>20134</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>371</v>
-      </c>
-      <c r="C32" t="s">
-        <v>61</v>
       </c>
       <c r="D32" t="s">
         <v>92</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="12">
         <v>20109</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="C33" t="s">
-        <v>435</v>
+        <v>61</v>
       </c>
       <c r="D33" t="s">
         <v>93</v>
       </c>
-      <c r="E33" s="9">
+      <c r="E33" s="12">
         <v>20225</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="C34" t="s">
-        <v>436</v>
+        <v>423</v>
       </c>
       <c r="D34" t="s">
         <v>94</v>
       </c>
-      <c r="E34" s="9">
+      <c r="E34" s="12">
         <v>20014</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="C35" t="s">
-        <v>62</v>
+        <v>424</v>
       </c>
       <c r="D35" t="s">
         <v>95</v>
       </c>
-      <c r="E35" s="9">
+      <c r="E35" s="12">
         <v>20137</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>12</v>
       </c>
       <c r="C36" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D36" t="s">
         <v>96</v>
       </c>
-      <c r="E36" s="9">
+      <c r="E36" s="12">
         <v>20112</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="C37" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D37" t="s">
         <v>97</v>
       </c>
-      <c r="E37" s="9">
+      <c r="E37" s="12">
         <v>20249</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>376</v>
+        <v>367</v>
+      </c>
+      <c r="C38" t="s">
+        <v>64</v>
       </c>
       <c r="D38" t="s">
         <v>98</v>
       </c>
-      <c r="E38" s="9">
+      <c r="E38" s="12">
         <v>20023</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>13</v>
       </c>
       <c r="D39" t="s">
         <v>99</v>
       </c>
-      <c r="E39" s="9">
+      <c r="E39" s="12">
         <v>20102</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="D40" t="s">
         <v>100</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="12">
         <v>20207</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>378</v>
+        <v>369</v>
       </c>
       <c r="D41" t="s">
         <v>101</v>
       </c>
-      <c r="E41" s="9">
+      <c r="E41" s="12">
         <v>20201</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>379</v>
+        <v>370</v>
       </c>
       <c r="D42" t="s">
         <v>102</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="12">
         <v>20217</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="D43" t="s">
         <v>103</v>
       </c>
-      <c r="E43" s="9">
+      <c r="E43" s="12">
         <v>20142</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>14</v>
       </c>
       <c r="D44" t="s">
         <v>104</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E44" s="12">
         <v>20143</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="D45" t="s">
         <v>105</v>
       </c>
-      <c r="E45" s="9">
+      <c r="E45" s="12">
         <v>20144</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>15</v>
       </c>
       <c r="D46" t="s">
         <v>106</v>
       </c>
-      <c r="E46" s="9">
+      <c r="E46" s="12">
         <v>20176</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>16</v>
       </c>
       <c r="D47" t="s">
         <v>107</v>
       </c>
-      <c r="E47" s="9">
+      <c r="E47" s="12">
         <v>20155</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="D48" t="s">
         <v>108</v>
       </c>
-      <c r="E48" s="9">
+      <c r="E48" s="12">
         <v>20199</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="D49" t="s">
         <v>109</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E49" s="12">
         <v>20182</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>384</v>
+        <v>375</v>
       </c>
       <c r="D50" t="s">
         <v>110</v>
       </c>
-      <c r="E50" s="9">
+      <c r="E50" s="12">
         <v>20227</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>17</v>
       </c>
       <c r="D51" t="s">
         <v>111</v>
       </c>
-      <c r="E51" s="9">
+      <c r="E51" s="12">
         <v>20231</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>385</v>
+        <v>376</v>
       </c>
       <c r="D52" t="s">
         <v>112</v>
       </c>
-      <c r="E52" s="9">
+      <c r="E52" s="12">
         <v>20098</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="D53" t="s">
         <v>113</v>
       </c>
-      <c r="E53" s="9">
+      <c r="E53" s="12">
         <v>20156</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="D54" t="s">
         <v>114</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E54" s="12">
         <v>20157</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>18</v>
       </c>
       <c r="D55" t="s">
         <v>115</v>
       </c>
-      <c r="E55" s="9">
+      <c r="E55" s="12">
         <v>20247</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="D56" t="s">
         <v>38</v>
       </c>
-      <c r="E56" s="9">
+      <c r="E56" s="12">
         <v>11044</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="D57" t="s">
         <v>116</v>
       </c>
-      <c r="E57" s="9">
+      <c r="E57" s="12">
         <v>20209</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="D58" t="s">
-        <v>335</v>
-      </c>
-      <c r="E58" s="9">
+        <v>327</v>
+      </c>
+      <c r="E58" s="12">
         <v>20278</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="D59" t="s">
         <v>117</v>
       </c>
-      <c r="E59" s="9">
+      <c r="E59" s="12">
         <v>20095</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>19</v>
       </c>
       <c r="D60" t="s">
         <v>118</v>
       </c>
-      <c r="E60" s="9">
+      <c r="E60" s="12">
         <v>336</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>20</v>
       </c>
       <c r="D61" t="s">
         <v>119</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E61" s="12">
         <v>20256</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="D62" t="s">
-        <v>437</v>
-      </c>
-      <c r="E62" s="9">
+        <v>425</v>
+      </c>
+      <c r="E62" s="12">
         <v>11000</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="D63" t="s">
         <v>120</v>
       </c>
-      <c r="E63" s="9">
+      <c r="E63" s="12">
         <v>20161</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="D64" t="s">
         <v>121</v>
       </c>
-      <c r="E64" s="9">
+      <c r="E64" s="12">
         <v>20197</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="D65" t="s">
         <v>122</v>
       </c>
-      <c r="E65" s="9">
+      <c r="E65" s="12">
         <v>20078</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="D66" t="s">
         <v>123</v>
       </c>
-      <c r="E66" s="9">
+      <c r="E66" s="12">
         <v>20279</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>21</v>
       </c>
       <c r="D67" t="s">
         <v>124</v>
       </c>
-      <c r="E67" s="9">
+      <c r="E67" s="12">
         <v>20190</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="D68" t="s">
         <v>125</v>
       </c>
-      <c r="E68" s="9">
+      <c r="E68" s="12">
         <v>20214</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="D69" t="s">
         <v>126</v>
       </c>
-      <c r="E69" s="9">
+      <c r="E69" s="12">
         <v>20239</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>22</v>
       </c>
       <c r="D70" t="s">
         <v>127</v>
       </c>
-      <c r="E70" s="9">
+      <c r="E70" s="12">
         <v>20210</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="D71" t="s">
         <v>128</v>
       </c>
-      <c r="E71" s="9">
+      <c r="E71" s="12">
         <v>20264</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="D72" t="s">
         <v>129</v>
       </c>
-      <c r="E72" s="9">
+      <c r="E72" s="12">
         <v>10970</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="D73" t="s">
         <v>130</v>
       </c>
-      <c r="E73" s="9">
+      <c r="E73" s="12">
         <v>20267</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>402</v>
+        <v>393</v>
       </c>
       <c r="D74" t="s">
         <v>131</v>
       </c>
-      <c r="E74" s="9">
+      <c r="E74" s="12">
         <v>20265</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="D75" t="s">
         <v>132</v>
       </c>
-      <c r="E75" s="9">
+      <c r="E75" s="12">
         <v>20277</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>404</v>
+        <v>395</v>
       </c>
       <c r="D76" t="s">
         <v>133</v>
       </c>
-      <c r="E76" s="9">
+      <c r="E76" s="12">
         <v>20099</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="D77" t="s">
         <v>134</v>
       </c>
-      <c r="E77" s="9">
+      <c r="E77" s="12">
         <v>20066</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>23</v>
       </c>
       <c r="D78" t="s">
         <v>135</v>
       </c>
-      <c r="E78" s="9">
+      <c r="E78" s="12">
         <v>20233</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="D79" t="s">
         <v>136</v>
       </c>
-      <c r="E79" s="9">
+      <c r="E79" s="12">
         <v>20224</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="D80" t="s">
         <v>137</v>
       </c>
-      <c r="E80" s="9">
+      <c r="E80" s="12">
         <v>20229</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="D81" t="s">
         <v>138</v>
       </c>
-      <c r="E81" s="9">
+      <c r="E81" s="12">
         <v>20186</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="D82" t="s">
         <v>139</v>
       </c>
-      <c r="E82" s="9">
+      <c r="E82" s="12">
         <v>20141</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>410</v>
+        <v>401</v>
       </c>
       <c r="D83" t="s">
         <v>140</v>
       </c>
-      <c r="E83" s="9">
+      <c r="E83" s="12">
         <v>20243</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>411</v>
+        <v>402</v>
       </c>
       <c r="D84" t="s">
         <v>141</v>
       </c>
-      <c r="E84" s="9">
+      <c r="E84" s="12">
         <v>20016</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>24</v>
       </c>
       <c r="D85" t="s">
         <v>142</v>
       </c>
-      <c r="E85" s="9">
+      <c r="E85" s="12">
         <v>20270</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>412</v>
+        <v>403</v>
       </c>
       <c r="D86" t="s">
         <v>143</v>
       </c>
-      <c r="E86" s="9">
+      <c r="E86" s="12">
         <v>20261</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>25</v>
       </c>
       <c r="D87" t="s">
         <v>144</v>
       </c>
-      <c r="E87" s="9">
+      <c r="E87" s="12">
         <v>20258</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>26</v>
       </c>
       <c r="D88" t="s">
         <v>41</v>
       </c>
-      <c r="E88" s="9">
+      <c r="E88" s="12">
         <v>20075</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>413</v>
+        <v>404</v>
       </c>
       <c r="D89" t="s">
-        <v>336</v>
-      </c>
-      <c r="E89" s="9">
+        <v>328</v>
+      </c>
+      <c r="E89" s="12">
         <v>20087</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="D90" t="s">
         <v>145</v>
       </c>
-      <c r="E90" s="9">
+      <c r="E90" s="12">
         <v>20079</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="D91" t="s">
         <v>146</v>
       </c>
-      <c r="E91" s="9">
+      <c r="E91" s="12">
         <v>20140</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>416</v>
+        <v>407</v>
       </c>
       <c r="D92" t="s">
         <v>147</v>
       </c>
-      <c r="E92" s="9">
+      <c r="E92" s="12">
         <v>20238</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="D93" t="s">
         <v>148</v>
       </c>
-      <c r="E93" s="9">
+      <c r="E93" s="12">
         <v>20262</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>418</v>
+        <v>409</v>
       </c>
       <c r="D94" t="s">
         <v>149</v>
       </c>
-      <c r="E94" s="9">
+      <c r="E94" s="12">
         <v>20236</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>419</v>
+        <v>410</v>
       </c>
       <c r="D95" t="s">
         <v>150</v>
       </c>
-      <c r="E95" s="9">
+      <c r="E95" s="12">
         <v>20222</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>420</v>
+        <v>411</v>
       </c>
       <c r="D96" t="s">
         <v>151</v>
       </c>
-      <c r="E96" s="9">
+      <c r="E96" s="12">
         <v>20174</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="D97" t="s">
         <v>152</v>
       </c>
-      <c r="E97" s="9">
+      <c r="E97" s="12">
         <v>20120</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>422</v>
+        <v>413</v>
       </c>
       <c r="D98" t="s">
         <v>153</v>
       </c>
-      <c r="E98" s="9">
+      <c r="E98" s="12">
         <v>20091</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>423</v>
+        <v>414</v>
       </c>
       <c r="D99" t="s">
-        <v>337</v>
-      </c>
-      <c r="E99" s="9">
+        <v>329</v>
+      </c>
+      <c r="E99" s="12">
         <v>20015</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D100" t="s">
-        <v>338</v>
-      </c>
-      <c r="E100" s="9">
+        <v>330</v>
+      </c>
+      <c r="E100" s="12">
         <v>20127</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D101" t="s">
-        <v>339</v>
-      </c>
-      <c r="E101" s="9">
+        <v>331</v>
+      </c>
+      <c r="E101" s="12">
         <v>20040</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D102" t="s">
-        <v>340</v>
-      </c>
-      <c r="E102" s="9">
+        <v>332</v>
+      </c>
+      <c r="E102" s="12">
         <v>20031</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D103" t="s">
         <v>154</v>
       </c>
-      <c r="E103" s="9">
+      <c r="E103" s="12">
         <v>20168</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D104" t="s">
         <v>155</v>
       </c>
-      <c r="E104" s="9">
+      <c r="E104" s="12">
         <v>20080</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D105" t="s">
         <v>156</v>
       </c>
-      <c r="E105" s="9">
+      <c r="E105" s="12">
         <v>20275</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D106" t="s">
         <v>157</v>
       </c>
-      <c r="E106" s="9">
+      <c r="E106" s="12">
         <v>20266</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D107" t="s">
-        <v>341</v>
-      </c>
-      <c r="E107" s="9">
+        <v>333</v>
+      </c>
+      <c r="E107" s="12">
         <v>20085</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D108" t="s">
         <v>158</v>
       </c>
-      <c r="E108" s="9">
+      <c r="E108" s="12">
         <v>20113</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D109" t="s">
         <v>159</v>
       </c>
-      <c r="E109" s="9">
+      <c r="E109" s="12">
         <v>20183</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D110" t="s">
         <v>160</v>
       </c>
-      <c r="E110" s="9">
+      <c r="E110" s="12">
         <v>20181</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D111" t="s">
         <v>161</v>
       </c>
-      <c r="E111" s="9">
+      <c r="E111" s="12">
         <v>20172</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
       <c r="D112" t="s">
         <v>162</v>
       </c>
-      <c r="E112" s="9">
+      <c r="E112" s="12">
         <v>20193</v>
       </c>
     </row>
-    <row r="113" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D113" t="s">
         <v>163</v>
       </c>
-      <c r="E113" s="9">
+      <c r="E113" s="12">
         <v>20122</v>
       </c>
     </row>
-    <row r="114" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D114" t="s">
         <v>164</v>
       </c>
-      <c r="E114" s="9">
+      <c r="E114" s="12">
         <v>10782</v>
       </c>
     </row>
-    <row r="115" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="115" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D115" t="s">
         <v>165</v>
       </c>
-      <c r="E115" s="9">
+      <c r="E115" s="12">
         <v>20050</v>
       </c>
     </row>
-    <row r="116" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="116" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D116" t="s">
         <v>166</v>
       </c>
-      <c r="E116" s="9">
+      <c r="E116" s="12">
         <v>20241</v>
       </c>
     </row>
-    <row r="117" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D117" t="s">
         <v>167</v>
       </c>
-      <c r="E117" s="9">
+      <c r="E117" s="12">
         <v>10029</v>
       </c>
     </row>
-    <row r="118" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D118" t="s">
         <v>168</v>
       </c>
-      <c r="E118" s="9">
+      <c r="E118" s="12">
         <v>341</v>
       </c>
     </row>
-    <row r="119" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D119" t="s">
         <v>169</v>
       </c>
-      <c r="E119" s="9">
+      <c r="E119" s="12">
         <v>20132</v>
       </c>
     </row>
-    <row r="120" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D120" t="s">
         <v>170</v>
       </c>
-      <c r="E120" s="9">
+      <c r="E120" s="12">
         <v>20110</v>
       </c>
     </row>
-    <row r="121" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D121" t="s">
         <v>171</v>
       </c>
-      <c r="E121" s="9">
+      <c r="E121" s="12">
         <v>20135</v>
       </c>
     </row>
-    <row r="122" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D122" t="s">
         <v>172</v>
       </c>
-      <c r="E122" s="9">
+      <c r="E122" s="12">
         <v>20019</v>
       </c>
     </row>
-    <row r="123" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D123" t="s">
         <v>173</v>
       </c>
-      <c r="E123" s="9">
+      <c r="E123" s="12">
         <v>20166</v>
       </c>
     </row>
-    <row r="124" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D124" t="s">
         <v>174</v>
       </c>
-      <c r="E124" s="9">
+      <c r="E124" s="12">
         <v>20198</v>
       </c>
     </row>
-    <row r="125" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D125" t="s">
         <v>175</v>
       </c>
-      <c r="E125" s="9">
+      <c r="E125" s="12">
         <v>20138</v>
       </c>
     </row>
-    <row r="126" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D126" t="s">
         <v>176</v>
       </c>
-      <c r="E126" s="9">
+      <c r="E126" s="12">
         <v>402</v>
       </c>
     </row>
-    <row r="127" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D127" t="s">
         <v>177</v>
       </c>
-      <c r="E127" s="9">
+      <c r="E127" s="12">
         <v>20034</v>
       </c>
     </row>
-    <row r="128" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D128" t="s">
         <v>178</v>
       </c>
-      <c r="E128" s="9">
+      <c r="E128" s="12">
         <v>20030</v>
       </c>
     </row>
-    <row r="129" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D129" t="s">
         <v>179</v>
       </c>
-      <c r="E129" s="9">
+      <c r="E129" s="12">
         <v>20025</v>
       </c>
     </row>
-    <row r="130" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D130" t="s">
         <v>180</v>
       </c>
-      <c r="E130" s="9">
+      <c r="E130" s="12">
         <v>20124</v>
       </c>
     </row>
-    <row r="131" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D131" t="s">
-        <v>342</v>
-      </c>
-      <c r="E131" s="9">
+        <v>334</v>
+      </c>
+      <c r="E131" s="12">
         <v>11058</v>
       </c>
     </row>
-    <row r="132" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D132" t="s">
         <v>181</v>
       </c>
-      <c r="E132" s="9">
+      <c r="E132" s="12">
         <v>20121</v>
       </c>
     </row>
-    <row r="133" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D133" t="s">
         <v>182</v>
       </c>
-      <c r="E133" s="9">
+      <c r="E133" s="12">
         <v>20189</v>
       </c>
     </row>
-    <row r="134" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D134" t="s">
         <v>44</v>
       </c>
-      <c r="E134" s="9">
+      <c r="E134" s="12">
         <v>10127</v>
       </c>
     </row>
-    <row r="135" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D135" t="s">
         <v>183</v>
       </c>
-      <c r="E135" s="9">
+      <c r="E135" s="12">
         <v>20018</v>
       </c>
     </row>
-    <row r="136" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D136" t="s">
         <v>184</v>
       </c>
-      <c r="E136" s="9">
+      <c r="E136" s="12">
         <v>20259</v>
       </c>
     </row>
-    <row r="137" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D137" t="s">
         <v>45</v>
       </c>
-      <c r="E137" s="9">
+      <c r="E137" s="12">
         <v>20026</v>
       </c>
     </row>
-    <row r="138" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D138" t="s">
         <v>185</v>
       </c>
-      <c r="E138" s="9">
+      <c r="E138" s="12">
         <v>11048</v>
       </c>
     </row>
-    <row r="139" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D139" t="s">
         <v>186</v>
       </c>
-      <c r="E139" s="9">
+      <c r="E139" s="12">
         <v>20131</v>
       </c>
     </row>
-    <row r="140" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D140" t="s">
-        <v>343</v>
-      </c>
-      <c r="E140" s="9">
+        <v>335</v>
+      </c>
+      <c r="E140" s="12">
         <v>20036</v>
       </c>
     </row>
-    <row r="141" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D141" t="s">
         <v>187</v>
       </c>
-      <c r="E141" s="9">
+      <c r="E141" s="12">
         <v>20035</v>
       </c>
     </row>
-    <row r="142" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D142" t="s">
-        <v>344</v>
-      </c>
-      <c r="E142" s="9">
+        <v>336</v>
+      </c>
+      <c r="E142" s="12">
         <v>20133</v>
       </c>
     </row>
-    <row r="143" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D143" t="s">
         <v>188</v>
       </c>
-      <c r="E143" s="9">
+      <c r="E143" s="12">
         <v>20130</v>
       </c>
     </row>
-    <row r="144" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D144" t="s">
         <v>189</v>
       </c>
-      <c r="E144" s="9">
+      <c r="E144" s="12">
         <v>20106</v>
       </c>
     </row>
-    <row r="145" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D145" t="s">
         <v>190</v>
       </c>
-      <c r="E145" s="9">
+      <c r="E145" s="12">
         <v>20027</v>
       </c>
     </row>
-    <row r="146" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D146" t="s">
         <v>191</v>
       </c>
-      <c r="E146" s="9">
+      <c r="E146" s="12">
         <v>20271</v>
       </c>
     </row>
-    <row r="147" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D147" t="s">
         <v>192</v>
       </c>
-      <c r="E147" s="9">
+      <c r="E147" s="12">
         <v>20250</v>
       </c>
     </row>
-    <row r="148" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D148" t="s">
         <v>193</v>
       </c>
-      <c r="E148" s="9">
+      <c r="E148" s="12">
         <v>20052</v>
       </c>
     </row>
-    <row r="149" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D149" t="s">
         <v>194</v>
       </c>
-      <c r="E149" s="9">
+      <c r="E149" s="12">
         <v>10713</v>
       </c>
     </row>
-    <row r="150" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D150" t="s">
         <v>195</v>
       </c>
-      <c r="E150" s="9">
+      <c r="E150" s="12">
         <v>20212</v>
       </c>
     </row>
-    <row r="151" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D151" t="s">
         <v>196</v>
       </c>
-      <c r="E151" s="9">
+      <c r="E151" s="12">
         <v>11015</v>
       </c>
     </row>
-    <row r="152" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D152" t="s">
-        <v>345</v>
-      </c>
-      <c r="E152" s="9">
+        <v>337</v>
+      </c>
+      <c r="E152" s="12">
         <v>20171</v>
       </c>
     </row>
-    <row r="153" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D153" t="s">
         <v>197</v>
       </c>
-      <c r="E153" s="9">
+      <c r="E153" s="12">
         <v>20042</v>
       </c>
     </row>
-    <row r="154" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D154" t="s">
         <v>198</v>
       </c>
-      <c r="E154" s="9">
+      <c r="E154" s="12">
         <v>20226</v>
       </c>
     </row>
-    <row r="155" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D155" t="s">
         <v>199</v>
       </c>
-      <c r="E155" s="9">
+      <c r="E155" s="12">
         <v>20043</v>
       </c>
     </row>
-    <row r="156" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D156" t="s">
-        <v>346</v>
-      </c>
-      <c r="E156" s="9">
+        <v>338</v>
+      </c>
+      <c r="E156" s="12">
         <v>20269</v>
       </c>
     </row>
-    <row r="157" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D157" t="s">
         <v>200</v>
       </c>
-      <c r="E157" s="9">
+      <c r="E157" s="12">
         <v>20223</v>
       </c>
     </row>
-    <row r="158" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D158" t="s">
         <v>201</v>
       </c>
-      <c r="E158" s="9">
+      <c r="E158" s="12">
         <v>20268</v>
       </c>
     </row>
-    <row r="159" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D159" t="s">
         <v>202</v>
       </c>
-      <c r="E159" s="9">
+      <c r="E159" s="12">
         <v>20215</v>
       </c>
     </row>
-    <row r="160" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D160" t="s">
         <v>203</v>
       </c>
-      <c r="E160" s="9">
+      <c r="E160" s="12">
         <v>20008</v>
       </c>
     </row>
-    <row r="161" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D161" t="s">
         <v>204</v>
       </c>
-      <c r="E161" s="9">
+      <c r="E161" s="12">
         <v>20097</v>
       </c>
     </row>
-    <row r="162" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D162" t="s">
         <v>205</v>
       </c>
-      <c r="E162" s="9">
+      <c r="E162" s="12">
         <v>10432</v>
       </c>
     </row>
-    <row r="163" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D163" t="s">
         <v>206</v>
       </c>
-      <c r="E163" s="9">
+      <c r="E163" s="12">
         <v>20048</v>
       </c>
     </row>
-    <row r="164" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D164" t="s">
         <v>207</v>
       </c>
-      <c r="E164" s="9">
+      <c r="E164" s="12">
         <v>20175</v>
       </c>
     </row>
-    <row r="165" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D165" t="s">
         <v>208</v>
       </c>
-      <c r="E165" s="9">
+      <c r="E165" s="12">
         <v>20051</v>
       </c>
     </row>
-    <row r="166" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D166" t="s">
         <v>209</v>
       </c>
-      <c r="E166" s="9">
+      <c r="E166" s="12">
         <v>20039</v>
       </c>
     </row>
-    <row r="167" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D167" t="s">
         <v>210</v>
       </c>
-      <c r="E167" s="9">
+      <c r="E167" s="12">
         <v>20230</v>
       </c>
     </row>
-    <row r="168" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D168" t="s">
         <v>211</v>
       </c>
-      <c r="E168" s="9">
+      <c r="E168" s="12">
         <v>20196</v>
       </c>
     </row>
-    <row r="169" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D169" t="s">
         <v>212</v>
       </c>
-      <c r="E169" s="9">
+      <c r="E169" s="12">
         <v>20221</v>
       </c>
     </row>
-    <row r="170" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D170" t="s">
         <v>213</v>
       </c>
-      <c r="E170" s="9">
+      <c r="E170" s="12">
         <v>20188</v>
       </c>
     </row>
-    <row r="171" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D171" t="s">
         <v>214</v>
       </c>
-      <c r="E171" s="9">
+      <c r="E171" s="12">
         <v>20054</v>
       </c>
     </row>
-    <row r="172" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D172" t="s">
         <v>215</v>
       </c>
-      <c r="E172" s="9">
+      <c r="E172" s="12">
         <v>20032</v>
       </c>
     </row>
-    <row r="173" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D173" t="s">
         <v>216</v>
       </c>
-      <c r="E173" s="9">
+      <c r="E173" s="12">
         <v>20010</v>
       </c>
     </row>
-    <row r="174" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="174" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D174" t="s">
         <v>217</v>
       </c>
-      <c r="E174" s="9">
+      <c r="E174" s="12">
         <v>20055</v>
       </c>
     </row>
-    <row r="175" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="175" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D175" t="s">
         <v>218</v>
       </c>
-      <c r="E175" s="9">
+      <c r="E175" s="12">
         <v>20061</v>
       </c>
     </row>
-    <row r="176" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="176" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D176" t="s">
         <v>219</v>
       </c>
-      <c r="E176" s="9">
+      <c r="E176" s="12">
         <v>20056</v>
       </c>
     </row>
-    <row r="177" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="177" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D177" t="s">
         <v>220</v>
       </c>
-      <c r="E177" s="9">
+      <c r="E177" s="12">
         <v>20057</v>
       </c>
     </row>
-    <row r="178" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="178" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D178" t="s">
         <v>221</v>
       </c>
-      <c r="E178" s="9">
+      <c r="E178" s="12">
         <v>20060</v>
       </c>
     </row>
-    <row r="179" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="179" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D179" t="s">
         <v>222</v>
       </c>
-      <c r="E179" s="9">
+      <c r="E179" s="12">
         <v>20003</v>
       </c>
     </row>
-    <row r="180" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="180" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D180" t="s">
-        <v>347</v>
-      </c>
-      <c r="E180" s="9">
+        <v>339</v>
+      </c>
+      <c r="E180" s="12">
         <v>20058</v>
       </c>
     </row>
-    <row r="181" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="181" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D181" t="s">
         <v>223</v>
       </c>
-      <c r="E181" s="9">
+      <c r="E181" s="12">
         <v>20005</v>
       </c>
     </row>
-    <row r="182" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="182" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D182" t="s">
         <v>224</v>
       </c>
-      <c r="E182" s="9">
+      <c r="E182" s="12">
         <v>20033</v>
       </c>
     </row>
-    <row r="183" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="183" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D183" t="s">
         <v>225</v>
       </c>
-      <c r="E183" s="9">
+      <c r="E183" s="12">
         <v>20128</v>
       </c>
     </row>
-    <row r="184" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="184" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D184" t="s">
         <v>226</v>
       </c>
-      <c r="E184" s="9">
+      <c r="E184" s="12">
         <v>20009</v>
       </c>
     </row>
-    <row r="185" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="185" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D185" t="s">
         <v>227</v>
       </c>
-      <c r="E185" s="9">
+      <c r="E185" s="12">
         <v>20006</v>
       </c>
     </row>
-    <row r="186" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="186" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D186" t="s">
         <v>228</v>
       </c>
-      <c r="E186" s="9">
+      <c r="E186" s="12">
         <v>20004</v>
       </c>
     </row>
-    <row r="187" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="187" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D187" t="s">
         <v>229</v>
       </c>
-      <c r="E187" s="9">
+      <c r="E187" s="12">
         <v>20007</v>
       </c>
     </row>
-    <row r="188" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="188" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D188" t="s">
         <v>230</v>
       </c>
-      <c r="E188" s="9">
+      <c r="E188" s="12">
         <v>20059</v>
       </c>
     </row>
-    <row r="189" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="189" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D189" t="s">
         <v>231</v>
       </c>
-      <c r="E189" s="9">
+      <c r="E189" s="12">
         <v>20145</v>
       </c>
     </row>
-    <row r="190" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="190" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D190" t="s">
-        <v>348</v>
-      </c>
-      <c r="E190" s="9">
+        <v>340</v>
+      </c>
+      <c r="E190" s="12">
         <v>20096</v>
       </c>
     </row>
-    <row r="191" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="191" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D191" t="s">
         <v>232</v>
       </c>
-      <c r="E191" s="9">
+      <c r="E191" s="12">
         <v>11073</v>
       </c>
     </row>
-    <row r="192" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="192" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D192" t="s">
         <v>233</v>
       </c>
-      <c r="E192" s="9">
+      <c r="E192" s="12">
         <v>20234</v>
       </c>
     </row>
-    <row r="193" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="193" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D193" t="s">
-        <v>349</v>
-      </c>
-      <c r="E193" s="9">
+        <v>341</v>
+      </c>
+      <c r="E193" s="12">
         <v>20017</v>
       </c>
     </row>
-    <row r="194" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="194" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D194" t="s">
         <v>234</v>
       </c>
-      <c r="E194" s="9">
+      <c r="E194" s="12">
         <v>20073</v>
       </c>
     </row>
-    <row r="195" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="195" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D195" t="s">
         <v>235</v>
       </c>
-      <c r="E195" s="9">
+      <c r="E195" s="12">
         <v>20011</v>
       </c>
     </row>
-    <row r="196" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="196" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D196" t="s">
         <v>236</v>
       </c>
-      <c r="E196" s="9">
+      <c r="E196" s="12">
         <v>20046</v>
       </c>
     </row>
-    <row r="197" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="197" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D197" t="s">
         <v>237</v>
       </c>
-      <c r="E197" s="9">
+      <c r="E197" s="12">
         <v>20194</v>
       </c>
     </row>
-    <row r="198" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="198" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D198" t="s">
         <v>52</v>
       </c>
-      <c r="E198" s="9">
+      <c r="E198" s="12">
         <v>20139</v>
       </c>
     </row>
-    <row r="199" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="199" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D199" t="s">
         <v>238</v>
       </c>
-      <c r="E199" s="9">
+      <c r="E199" s="12">
         <v>10471</v>
       </c>
     </row>
-    <row r="200" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="200" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D200" t="s">
         <v>239</v>
       </c>
-      <c r="E200" s="9">
+      <c r="E200" s="12">
         <v>10983</v>
       </c>
     </row>
-    <row r="201" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="201" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D201" t="s">
         <v>240</v>
       </c>
-      <c r="E201" s="9">
+      <c r="E201" s="12">
         <v>20068</v>
       </c>
     </row>
-    <row r="202" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="202" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D202" t="s">
         <v>241</v>
       </c>
-      <c r="E202" s="9">
+      <c r="E202" s="12">
         <v>20069</v>
       </c>
     </row>
-    <row r="203" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="203" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D203" t="s">
         <v>242</v>
       </c>
-      <c r="E203" s="9">
+      <c r="E203" s="12">
         <v>20274</v>
       </c>
     </row>
-    <row r="204" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="204" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D204" t="s">
         <v>243</v>
       </c>
-      <c r="E204" s="9">
+      <c r="E204" s="12">
         <v>20232</v>
       </c>
     </row>
-    <row r="205" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="205" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D205" t="s">
         <v>244</v>
       </c>
-      <c r="E205" s="9">
+      <c r="E205" s="12">
         <v>20071</v>
       </c>
     </row>
-    <row r="206" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="206" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D206" t="s">
         <v>245</v>
       </c>
-      <c r="E206" s="9">
+      <c r="E206" s="12">
         <v>20280</v>
       </c>
     </row>
-    <row r="207" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="207" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D207" t="s">
         <v>246</v>
       </c>
-      <c r="E207" s="9">
+      <c r="E207" s="12">
         <v>20170</v>
       </c>
     </row>
-    <row r="208" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="208" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D208" t="s">
         <v>247</v>
       </c>
-      <c r="E208" s="9">
+      <c r="E208" s="12">
         <v>20072</v>
       </c>
     </row>
-    <row r="209" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="209" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D209" t="s">
         <v>248</v>
       </c>
-      <c r="E209" s="9">
+      <c r="E209" s="12">
         <v>20147</v>
       </c>
     </row>
-    <row r="210" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="210" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D210" t="s">
         <v>249</v>
       </c>
-      <c r="E210" s="9">
+      <c r="E210" s="12">
         <v>20204</v>
       </c>
     </row>
-    <row r="211" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="211" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D211" t="s">
         <v>250</v>
       </c>
-      <c r="E211" s="9">
+      <c r="E211" s="12">
         <v>20165</v>
       </c>
     </row>
-    <row r="212" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="212" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D212" t="s">
         <v>251</v>
       </c>
-      <c r="E212" s="9">
+      <c r="E212" s="12">
         <v>20237</v>
       </c>
     </row>
-    <row r="213" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="213" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D213" t="s">
         <v>57</v>
       </c>
-      <c r="E213" s="9">
+      <c r="E213" s="12">
         <v>20028</v>
       </c>
     </row>
-    <row r="214" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="214" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D214" t="s">
         <v>252</v>
       </c>
-      <c r="E214" s="9">
+      <c r="E214" s="12">
         <v>20242</v>
       </c>
     </row>
-    <row r="215" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="215" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D215" t="s">
         <v>253</v>
       </c>
-      <c r="E215" s="9">
+      <c r="E215" s="12">
         <v>20076</v>
       </c>
     </row>
-    <row r="216" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="216" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D216" t="s">
         <v>58</v>
       </c>
-      <c r="E216" s="9">
+      <c r="E216" s="12">
         <v>20020</v>
       </c>
     </row>
-    <row r="217" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="217" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D217" t="s">
         <v>254</v>
       </c>
-      <c r="E217" s="9">
+      <c r="E217" s="12">
         <v>20253</v>
       </c>
     </row>
-    <row r="218" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="218" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D218" t="s">
         <v>255</v>
       </c>
-      <c r="E218" s="9">
+      <c r="E218" s="12">
         <v>20022</v>
       </c>
     </row>
-    <row r="219" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="219" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D219" t="s">
         <v>256</v>
       </c>
-      <c r="E219" s="9">
+      <c r="E219" s="12">
         <v>20169</v>
       </c>
     </row>
-    <row r="220" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="220" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D220" t="s">
         <v>257</v>
       </c>
-      <c r="E220" s="9">
+      <c r="E220" s="12">
         <v>20146</v>
       </c>
     </row>
-    <row r="221" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="221" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D221" t="s">
         <v>258</v>
       </c>
-      <c r="E221" s="9">
+      <c r="E221" s="12">
         <v>20105</v>
       </c>
     </row>
-    <row r="222" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="222" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D222" t="s">
         <v>259</v>
       </c>
-      <c r="E222" s="9">
+      <c r="E222" s="12">
         <v>20282</v>
       </c>
     </row>
-    <row r="223" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="223" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D223" t="s">
         <v>260</v>
       </c>
-      <c r="E223" s="9">
+      <c r="E223" s="12">
         <v>20281</v>
       </c>
     </row>
-    <row r="224" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="224" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D224" t="s">
         <v>261</v>
       </c>
-      <c r="E224" s="9">
+      <c r="E224" s="12">
         <v>20062</v>
       </c>
     </row>
-    <row r="225" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="225" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D225" t="s">
         <v>262</v>
       </c>
-      <c r="E225" s="9">
+      <c r="E225" s="12">
         <v>20148</v>
       </c>
     </row>
-    <row r="226" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="226" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D226" t="s">
         <v>263</v>
       </c>
-      <c r="E226" s="9">
+      <c r="E226" s="12">
         <v>20202</v>
       </c>
     </row>
-    <row r="227" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="227" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D227" t="s">
         <v>264</v>
       </c>
-      <c r="E227" s="9">
+      <c r="E227" s="12">
         <v>20191</v>
       </c>
     </row>
-    <row r="228" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="228" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D228" t="s">
         <v>265</v>
       </c>
-      <c r="E228" s="9">
+      <c r="E228" s="12">
         <v>20220</v>
       </c>
     </row>
-    <row r="229" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="229" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D229" t="s">
         <v>266</v>
       </c>
-      <c r="E229" s="9">
+      <c r="E229" s="12">
         <v>20255</v>
       </c>
     </row>
-    <row r="230" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="230" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D230" t="s">
         <v>267</v>
       </c>
-      <c r="E230" s="9">
+      <c r="E230" s="12">
         <v>20185</v>
       </c>
     </row>
-    <row r="231" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="231" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D231" t="s">
         <v>268</v>
       </c>
-      <c r="E231" s="9">
+      <c r="E231" s="12">
         <v>20044</v>
       </c>
     </row>
-    <row r="232" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="232" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D232" t="s">
         <v>269</v>
       </c>
-      <c r="E232" s="9">
+      <c r="E232" s="12">
         <v>20160</v>
       </c>
     </row>
-    <row r="233" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="233" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D233" t="s">
         <v>270</v>
       </c>
-      <c r="E233" s="9">
+      <c r="E233" s="12">
         <v>20159</v>
       </c>
     </row>
-    <row r="234" spans="4:5" x14ac:dyDescent="0.25">
+    <row r="234" spans="4:5" x14ac:dyDescent="0.3">
       <c r="D234" t="s">
+        <v>444</v>
+      </c>
+      <c r="E234" s="12">
+        <v>20285</v>
+      </c>
+    </row>
+    <row r="235" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D235" t="s">
         <v>271</v>
       </c>
-      <c r="E234" s="9">
+      <c r="E235" s="12">
         <v>20081</v>
       </c>
     </row>
-    <row r="235" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D235" t="s">
+    <row r="236" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D236" t="s">
         <v>272</v>
       </c>
-      <c r="E235" s="9">
+      <c r="E236" s="12">
         <v>20252</v>
       </c>
     </row>
-    <row r="236" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D236" t="s">
+    <row r="237" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D237" t="s">
         <v>273</v>
       </c>
-      <c r="E236" s="9">
+      <c r="E237" s="12">
         <v>20114</v>
       </c>
     </row>
-    <row r="237" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D237" t="s">
+    <row r="238" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D238" t="s">
         <v>274</v>
       </c>
-      <c r="E237" s="9">
+      <c r="E238" s="12">
         <v>20149</v>
       </c>
     </row>
-    <row r="238" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D238" t="s">
+    <row r="239" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D239" t="s">
         <v>275</v>
       </c>
-      <c r="E238" s="9">
+      <c r="E239" s="12">
         <v>20187</v>
       </c>
     </row>
-    <row r="239" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D239" t="s">
+    <row r="240" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D240" t="s">
         <v>276</v>
       </c>
-      <c r="E239" s="9">
+      <c r="E240" s="12">
         <v>20115</v>
       </c>
     </row>
-    <row r="240" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D240" t="s">
+    <row r="241" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D241" t="s">
         <v>277</v>
       </c>
-      <c r="E240" s="9">
+      <c r="E241" s="12">
         <v>20184</v>
       </c>
     </row>
-    <row r="241" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D241" t="s">
+    <row r="242" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D242" t="s">
         <v>278</v>
       </c>
-      <c r="E241" s="9">
+      <c r="E242" s="12">
         <v>20245</v>
       </c>
     </row>
-    <row r="242" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D242" t="s">
+    <row r="243" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D243" t="s">
         <v>279</v>
       </c>
-      <c r="E242" s="9">
+      <c r="E243" s="12">
         <v>20246</v>
       </c>
     </row>
-    <row r="243" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D243" t="s">
-        <v>438</v>
-      </c>
-      <c r="E243" s="9">
+    <row r="244" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D244" t="s">
+        <v>426</v>
+      </c>
+      <c r="E244" s="12">
         <v>20180</v>
       </c>
     </row>
-    <row r="244" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D244" t="s">
+    <row r="245" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D245" t="s">
         <v>280</v>
       </c>
-      <c r="E244" s="9">
+      <c r="E245" s="12">
         <v>20235</v>
       </c>
     </row>
-    <row r="245" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D245" t="s">
+    <row r="246" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D246" t="s">
         <v>281</v>
       </c>
-      <c r="E245" s="9">
+      <c r="E246" s="12">
         <v>20177</v>
       </c>
     </row>
-    <row r="246" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D246" t="s">
+    <row r="247" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D247" t="s">
         <v>282</v>
       </c>
-      <c r="E246" s="9">
+      <c r="E247" s="12">
         <v>20093</v>
       </c>
     </row>
-    <row r="247" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D247" t="s">
+    <row r="248" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D248" t="s">
         <v>283</v>
       </c>
-      <c r="E247" s="9">
+      <c r="E248" s="12">
         <v>20116</v>
       </c>
     </row>
-    <row r="248" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D248" t="s">
+    <row r="249" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D249" t="s">
         <v>284</v>
       </c>
-      <c r="E248" s="9">
+      <c r="E249" s="12">
         <v>10202</v>
       </c>
     </row>
-    <row r="249" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D249" t="s">
+    <row r="250" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D250" t="s">
         <v>285</v>
       </c>
-      <c r="E249" s="9">
+      <c r="E250" s="12">
         <v>20074</v>
       </c>
     </row>
-    <row r="250" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D250" t="s">
-        <v>439</v>
-      </c>
-      <c r="E250" s="9">
+    <row r="251" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D251" t="s">
+        <v>427</v>
+      </c>
+      <c r="E251" s="12">
         <v>20123</v>
       </c>
     </row>
-    <row r="251" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D251" t="s">
+    <row r="252" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D252" t="s">
         <v>286</v>
       </c>
-      <c r="E251" s="9">
+      <c r="E252" s="12">
         <v>20064</v>
       </c>
     </row>
-    <row r="252" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D252" t="s">
+    <row r="253" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D253" t="s">
         <v>287</v>
       </c>
-      <c r="E252" s="9">
+      <c r="E253" s="12">
         <v>20065</v>
       </c>
     </row>
-    <row r="253" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D253" t="s">
-        <v>350</v>
-      </c>
-      <c r="E253" s="9">
+    <row r="254" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D254" t="s">
+        <v>342</v>
+      </c>
+      <c r="E254" s="12">
         <v>20178</v>
       </c>
     </row>
-    <row r="254" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D254" t="s">
+    <row r="255" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D255" t="s">
         <v>288</v>
       </c>
-      <c r="E254" s="9">
+      <c r="E255" s="12">
         <v>20200</v>
       </c>
     </row>
-    <row r="255" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D255" t="s">
+    <row r="256" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D256" t="s">
         <v>289</v>
       </c>
-      <c r="E255" s="9">
+      <c r="E256" s="12">
         <v>20254</v>
       </c>
     </row>
-    <row r="256" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D256" t="s">
+    <row r="257" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D257" t="s">
         <v>290</v>
       </c>
-      <c r="E256" s="9">
+      <c r="E257" s="12">
         <v>20248</v>
       </c>
     </row>
-    <row r="257" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D257" t="s">
+    <row r="258" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D258" t="s">
         <v>291</v>
       </c>
-      <c r="E257" s="9">
+      <c r="E258" s="12">
         <v>20219</v>
       </c>
     </row>
-    <row r="258" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D258" t="s">
+    <row r="259" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D259" t="s">
         <v>292</v>
       </c>
-      <c r="E258" s="9">
+      <c r="E259" s="12">
         <v>20244</v>
       </c>
     </row>
-    <row r="259" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D259" t="s">
+    <row r="260" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D260" t="s">
         <v>293</v>
       </c>
-      <c r="E259" s="9">
+      <c r="E260" s="12">
         <v>20263</v>
       </c>
     </row>
-    <row r="260" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D260" t="s">
+    <row r="261" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D261" t="s">
         <v>294</v>
       </c>
-      <c r="E260" s="9">
+      <c r="E261" s="12">
         <v>10012</v>
       </c>
     </row>
-    <row r="261" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D261" t="s">
+    <row r="262" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D262" t="s">
         <v>295</v>
       </c>
-      <c r="E261" s="9">
+      <c r="E262" s="12">
         <v>20117</v>
       </c>
     </row>
-    <row r="262" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D262" t="s">
-        <v>351</v>
-      </c>
-      <c r="E262" s="9">
+    <row r="263" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D263" t="s">
+        <v>343</v>
+      </c>
+      <c r="E263" s="12">
         <v>10048</v>
       </c>
     </row>
-    <row r="263" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D263" t="s">
-        <v>440</v>
-      </c>
-      <c r="E263" s="9">
+    <row r="264" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D264" t="s">
+        <v>428</v>
+      </c>
+      <c r="E264" s="12">
         <v>20164</v>
       </c>
     </row>
-    <row r="264" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D264" t="s">
+    <row r="265" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D265" t="s">
         <v>296</v>
       </c>
-      <c r="E264" s="9">
+      <c r="E265" s="12">
         <v>20272</v>
       </c>
     </row>
-    <row r="265" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D265" t="s">
+    <row r="266" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D266" t="s">
         <v>297</v>
       </c>
-      <c r="E265" s="9">
+      <c r="E266" s="12">
         <v>20012</v>
       </c>
     </row>
-    <row r="266" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D266" t="s">
+    <row r="267" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D267" t="s">
         <v>298</v>
       </c>
-      <c r="E266" s="9">
+      <c r="E267" s="12">
         <v>20208</v>
       </c>
     </row>
-    <row r="267" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D267" t="s">
-        <v>441</v>
-      </c>
-      <c r="E267" s="9">
+    <row r="268" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D268" t="s">
+        <v>429</v>
+      </c>
+      <c r="E268" s="12">
         <v>20021</v>
       </c>
     </row>
-    <row r="268" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D268" t="s">
+    <row r="269" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D269" t="s">
         <v>299</v>
       </c>
-      <c r="E268" s="9">
+      <c r="E269" s="12">
         <v>20273</v>
       </c>
     </row>
-    <row r="269" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D269" t="s">
+    <row r="270" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D270" t="s">
         <v>300</v>
       </c>
-      <c r="E269" s="9">
+      <c r="E270" s="12">
         <v>20082</v>
       </c>
     </row>
-    <row r="270" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D270" t="s">
+    <row r="271" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D271" t="s">
         <v>301</v>
       </c>
-      <c r="E270" s="9">
+      <c r="E271" s="12">
         <v>20205</v>
       </c>
     </row>
-    <row r="271" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D271" t="s">
+    <row r="272" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D272" t="s">
         <v>302</v>
       </c>
-      <c r="E271" s="9">
+      <c r="E272" s="12">
         <v>20118</v>
       </c>
     </row>
-    <row r="272" spans="4:5" x14ac:dyDescent="0.25">
-      <c r="D272" t="s">
+    <row r="273" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D273" t="s">
         <v>303</v>
       </c>
-      <c r="E272" s="9">
+      <c r="E273" s="12">
         <v>20195</v>
       </c>
     </row>
@@ -5340,354 +5933,345 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF117DD8-8B54-44CC-AA12-FC16BF191D23}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="B2" sqref="B2:H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:8" s="7" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="E1" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>0.25</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>461</v>
+      </c>
+      <c r="B2" s="10">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10">
         <v>19</v>
       </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>0.26041666666666669</v>
-      </c>
-      <c r="B3">
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10">
+        <v>1</v>
+      </c>
+      <c r="G2" s="10">
+        <v>1</v>
+      </c>
+      <c r="H2" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>462</v>
+      </c>
+      <c r="B3" s="10">
         <v>11</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="10">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="10">
         <v>2</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="10">
         <v>2</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="10">
         <v>2</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="10">
         <v>2</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="10">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>0.27083333333333331</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>463</v>
+      </c>
+      <c r="B4" s="10">
         <v>3</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="10">
         <v>3</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="10">
         <v>3</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="10">
         <v>3</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="10">
         <v>3</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="10">
         <v>3</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="10">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>0.28125</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>464</v>
+      </c>
+      <c r="B5" s="10">
         <v>4</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="10">
         <v>4</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="10">
         <v>4</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="10">
         <v>4</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="10">
         <v>4</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="10">
         <v>4</v>
       </c>
-      <c r="H5" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>0.29166666666666669</v>
-      </c>
-      <c r="B6" t="s">
-        <v>315</v>
-      </c>
-      <c r="C6">
+      <c r="H5" s="10" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>465</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="C6" s="10">
         <v>5</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="10">
         <v>5</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="10">
         <v>5</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="10">
         <v>5</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="10">
         <v>5</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="10">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>0.30208333333333331</v>
-      </c>
-      <c r="B7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>466</v>
+      </c>
+      <c r="B7" s="10">
         <v>6</v>
       </c>
-      <c r="C7" t="s">
-        <v>315</v>
-      </c>
-      <c r="D7">
+      <c r="C7" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="D7" s="10">
         <v>6</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="10">
         <v>6</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="10">
         <v>6</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="10">
         <v>6</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="10">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>0.3125</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>467</v>
+      </c>
+      <c r="B8" s="10">
         <v>7</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="10">
         <v>7</v>
       </c>
-      <c r="D8" t="s">
-        <v>315</v>
-      </c>
-      <c r="E8">
+      <c r="D8" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="E8" s="10">
         <v>7</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="10">
         <v>7</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="10">
         <v>7</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="10">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>0.32291666666666669</v>
-      </c>
-      <c r="B9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="B9" s="10">
         <v>8</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="10">
         <v>8</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="10">
         <v>8</v>
       </c>
-      <c r="E9" t="s">
-        <v>315</v>
-      </c>
-      <c r="F9">
+      <c r="E9" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="F9" s="10">
         <v>8</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="10">
         <v>8</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="10">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>0.33333333333333331</v>
-      </c>
-      <c r="B10">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="B10" s="10">
         <v>9</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="10">
         <v>9</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="10">
         <v>9</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="10">
         <v>9</v>
       </c>
-      <c r="F10" t="s">
-        <v>315</v>
-      </c>
-      <c r="G10">
+      <c r="F10" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="G10" s="10">
         <v>9</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>0.34375</v>
-      </c>
-      <c r="B11">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="B11" s="10">
         <v>10</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="10">
         <v>10</v>
       </c>
       <c r="D11">
         <v>10</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="10">
         <v>10</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="10">
         <v>10</v>
       </c>
-      <c r="G11" t="s">
-        <v>315</v>
-      </c>
-      <c r="H11">
+      <c r="G11" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="H11" s="10">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>0.35416666666666669</v>
-      </c>
-      <c r="B12">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="B12" s="10">
         <v>11</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="10">
         <v>11</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="10">
         <v>11</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="10">
         <v>11</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="10">
         <v>11</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="10">
         <v>11</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="10">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>0.36458333333333331</v>
-      </c>
-      <c r="B13" t="s">
-        <v>315</v>
-      </c>
-      <c r="C13" t="s">
-        <v>315</v>
-      </c>
-      <c r="D13" t="s">
-        <v>315</v>
-      </c>
-      <c r="E13" t="s">
-        <v>315</v>
-      </c>
-      <c r="F13" t="s">
-        <v>315</v>
-      </c>
-      <c r="G13" t="s">
-        <v>315</v>
-      </c>
-      <c r="H13" t="s">
-        <v>315</v>
-      </c>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5696,325 +6280,349 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{869FD399-AA04-4380-9F30-5D10C735B05B}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H13"/>
+      <selection activeCell="B2" sqref="B2:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="E1" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>0.375</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="B2" s="10">
         <v>42</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="10">
         <v>43</v>
       </c>
-      <c r="D2" t="s">
-        <v>315</v>
-      </c>
-      <c r="F2" t="s">
-        <v>315</v>
-      </c>
-      <c r="G2" t="s">
-        <v>315</v>
-      </c>
-      <c r="H2">
+      <c r="D2" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="H2" s="10">
         <v>1000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>0.38541666666666669</v>
-      </c>
-      <c r="B3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="B3" s="10">
         <v>42</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="10">
         <v>43</v>
       </c>
-      <c r="D3" t="s">
-        <v>315</v>
-      </c>
-      <c r="F3" t="s">
-        <v>315</v>
-      </c>
-      <c r="G3" t="s">
-        <v>315</v>
-      </c>
-      <c r="H3">
+      <c r="D3" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="H3" s="10">
         <v>1000</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>0.39583333333333331</v>
-      </c>
-      <c r="B4">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="B4" s="10">
         <v>42</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="10">
         <v>43</v>
       </c>
-      <c r="D4" t="s">
-        <v>315</v>
-      </c>
-      <c r="F4" t="s">
-        <v>315</v>
-      </c>
-      <c r="G4" t="s">
-        <v>315</v>
-      </c>
-      <c r="H4">
+      <c r="D4" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="H4" s="10">
         <v>1000</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>0.40625</v>
-      </c>
-      <c r="B5">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="B5" s="10">
         <v>42</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="10">
         <v>43</v>
       </c>
-      <c r="D5" t="s">
-        <v>315</v>
-      </c>
-      <c r="F5" t="s">
-        <v>315</v>
-      </c>
-      <c r="G5" t="s">
-        <v>315</v>
-      </c>
-      <c r="H5">
+      <c r="D5" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="H5" s="10">
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="B6">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="B6" s="10">
         <v>42</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="10">
         <v>43</v>
       </c>
-      <c r="D6" t="s">
-        <v>315</v>
-      </c>
-      <c r="F6" t="s">
-        <v>315</v>
-      </c>
-      <c r="G6" t="s">
-        <v>315</v>
-      </c>
-      <c r="H6">
+      <c r="D6" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="H6" s="10">
         <v>1000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>0.42708333333333331</v>
-      </c>
-      <c r="B7">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="B7" s="10">
         <v>42</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="10">
         <v>43</v>
       </c>
-      <c r="D7" t="s">
-        <v>315</v>
-      </c>
-      <c r="F7" t="s">
-        <v>315</v>
-      </c>
-      <c r="G7" t="s">
-        <v>315</v>
-      </c>
-      <c r="H7">
+      <c r="D7" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="H7" s="10">
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>0.4375</v>
-      </c>
-      <c r="B8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="B8" s="10">
         <v>42</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="10">
         <v>43</v>
       </c>
-      <c r="D8" t="s">
-        <v>315</v>
-      </c>
-      <c r="F8" t="s">
-        <v>315</v>
-      </c>
-      <c r="G8" t="s">
-        <v>315</v>
-      </c>
-      <c r="H8">
+      <c r="D8" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="H8" s="10">
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>0.44791666666666669</v>
-      </c>
-      <c r="B9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="B9" s="10">
         <v>42</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="10">
         <v>43</v>
       </c>
-      <c r="D9" t="s">
-        <v>315</v>
-      </c>
-      <c r="F9" t="s">
-        <v>315</v>
-      </c>
-      <c r="G9" t="s">
-        <v>315</v>
-      </c>
-      <c r="H9">
+      <c r="D9" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="H9" s="10">
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>0.45833333333333331</v>
-      </c>
-      <c r="B10">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="B10" s="10">
         <v>42</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="10">
         <v>43</v>
       </c>
-      <c r="D10" t="s">
-        <v>315</v>
-      </c>
-      <c r="F10" t="s">
-        <v>315</v>
-      </c>
-      <c r="G10" t="s">
-        <v>315</v>
-      </c>
-      <c r="H10">
+      <c r="D10" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="H10" s="10">
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>0.46875</v>
-      </c>
-      <c r="B11">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="B11" s="10">
         <v>42</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="10">
         <v>43</v>
       </c>
-      <c r="D11" t="s">
-        <v>315</v>
-      </c>
-      <c r="F11" t="s">
-        <v>315</v>
-      </c>
-      <c r="G11" t="s">
-        <v>315</v>
-      </c>
-      <c r="H11">
+      <c r="D11" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="H11" s="10">
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>0.47916666666666669</v>
-      </c>
-      <c r="B12">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="B12" s="10">
         <v>42</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="10">
         <v>43</v>
       </c>
-      <c r="D12" t="s">
-        <v>315</v>
-      </c>
-      <c r="F12" t="s">
-        <v>315</v>
-      </c>
-      <c r="G12" t="s">
-        <v>315</v>
-      </c>
-      <c r="H12">
+      <c r="D12" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="H12" s="10">
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>0.48958333333333331</v>
-      </c>
-      <c r="B13">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="B13" s="10">
         <v>42</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="10">
         <v>43</v>
       </c>
-      <c r="D13" t="s">
-        <v>315</v>
-      </c>
-      <c r="E13" t="s">
-        <v>315</v>
-      </c>
-      <c r="F13" t="s">
-        <v>315</v>
-      </c>
-      <c r="G13" t="s">
-        <v>315</v>
-      </c>
-      <c r="H13">
+      <c r="D13" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="H13" s="10">
         <v>1000</v>
       </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="11"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="11"/>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.3">
+      <c r="F18" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6023,463 +6631,554 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64FAC75F-9528-4513-B8C7-6953ED5D7AB9}">
-  <dimension ref="A1:H13"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="V10" sqref="V10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="89" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B6AFC26-B5DD-4DF3-9E6D-4AB00A6BFA4B}">
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="E1" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>0.51041666666666663</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>0.52083333333333337</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>0.53125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>0.54166666666666663</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>0.55208333333333337</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>0.5625</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>0.57291666666666663</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>0.58333333333333337</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>0.59375</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>0.60416666666666663</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>0.61458333333333337</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B6AFC26-B5DD-4DF3-9E6D-4AB00A6BFA4B}">
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="6" max="7" width="13.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>308</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>0.625</v>
-      </c>
-      <c r="B2">
-        <v>200</v>
-      </c>
-      <c r="C2">
-        <v>200</v>
-      </c>
-      <c r="D2">
-        <v>200</v>
-      </c>
-      <c r="E2">
-        <v>200</v>
-      </c>
-      <c r="F2">
-        <v>200</v>
-      </c>
-      <c r="G2">
-        <v>200</v>
-      </c>
-      <c r="H2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>0.63541666666666663</v>
-      </c>
-      <c r="B3">
-        <v>200</v>
-      </c>
-      <c r="C3">
-        <v>200</v>
-      </c>
-      <c r="D3">
-        <v>200</v>
-      </c>
-      <c r="E3">
-        <v>200</v>
-      </c>
-      <c r="F3">
-        <v>200</v>
-      </c>
-      <c r="G3">
-        <v>200</v>
-      </c>
-      <c r="H3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="B4">
-        <v>200</v>
-      </c>
-      <c r="C4">
-        <v>200</v>
-      </c>
-      <c r="D4">
-        <v>200</v>
-      </c>
-      <c r="E4">
-        <v>200</v>
-      </c>
-      <c r="F4">
-        <v>200</v>
-      </c>
-      <c r="G4">
-        <v>200</v>
-      </c>
-      <c r="H4">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>0.65625</v>
-      </c>
-      <c r="B5">
-        <v>200</v>
-      </c>
-      <c r="C5">
-        <v>200</v>
-      </c>
-      <c r="D5">
-        <v>200</v>
-      </c>
-      <c r="E5">
-        <v>200</v>
-      </c>
-      <c r="F5">
-        <v>200</v>
-      </c>
-      <c r="G5">
-        <v>200</v>
-      </c>
-      <c r="H5">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="B6">
-        <v>200</v>
-      </c>
-      <c r="C6">
-        <v>200</v>
-      </c>
-      <c r="D6">
-        <v>200</v>
-      </c>
-      <c r="E6">
-        <v>200</v>
-      </c>
-      <c r="F6">
-        <v>200</v>
-      </c>
-      <c r="G6">
-        <v>200</v>
-      </c>
-      <c r="H6">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>0.67708333333333337</v>
-      </c>
-      <c r="B7">
-        <v>200</v>
-      </c>
-      <c r="C7">
-        <v>200</v>
-      </c>
-      <c r="D7">
-        <v>200</v>
-      </c>
-      <c r="E7">
-        <v>200</v>
-      </c>
-      <c r="F7">
-        <v>200</v>
-      </c>
-      <c r="G7">
-        <v>200</v>
-      </c>
-      <c r="H7">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>0.6875</v>
-      </c>
-      <c r="B8">
-        <v>200</v>
-      </c>
-      <c r="C8">
-        <v>200</v>
-      </c>
-      <c r="D8">
-        <v>200</v>
-      </c>
-      <c r="E8">
-        <v>200</v>
-      </c>
-      <c r="F8">
-        <v>200</v>
-      </c>
-      <c r="G8">
-        <v>200</v>
-      </c>
-      <c r="H8">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>0.69791666666666663</v>
-      </c>
-      <c r="B9">
-        <v>200</v>
-      </c>
-      <c r="C9">
-        <v>200</v>
-      </c>
-      <c r="D9">
-        <v>200</v>
-      </c>
-      <c r="E9">
-        <v>200</v>
-      </c>
-      <c r="F9">
-        <v>200</v>
-      </c>
-      <c r="G9">
-        <v>200</v>
-      </c>
-      <c r="H9">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="B10">
-        <v>200</v>
-      </c>
-      <c r="C10">
-        <v>200</v>
-      </c>
-      <c r="D10">
-        <v>200</v>
-      </c>
-      <c r="E10">
-        <v>200</v>
-      </c>
-      <c r="F10">
-        <v>200</v>
-      </c>
-      <c r="G10">
-        <v>200</v>
-      </c>
-      <c r="H10">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>0.71875</v>
-      </c>
-      <c r="B11">
-        <v>200</v>
-      </c>
-      <c r="C11">
-        <v>200</v>
-      </c>
-      <c r="D11">
-        <v>200</v>
-      </c>
-      <c r="E11">
-        <v>200</v>
-      </c>
-      <c r="F11">
-        <v>200</v>
-      </c>
-      <c r="G11">
-        <v>200</v>
-      </c>
-      <c r="H11">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>0.72916666666666663</v>
-      </c>
-      <c r="B12">
-        <v>200</v>
-      </c>
-      <c r="C12">
-        <v>200</v>
-      </c>
-      <c r="D12">
-        <v>200</v>
-      </c>
-      <c r="E12">
-        <v>200</v>
-      </c>
-      <c r="F12">
-        <v>200</v>
-      </c>
-      <c r="G12">
-        <v>200</v>
-      </c>
-      <c r="H12">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>0.73958333333333337</v>
-      </c>
-      <c r="B13">
-        <v>200</v>
-      </c>
-      <c r="C13">
-        <v>200</v>
-      </c>
-      <c r="D13">
-        <v>200</v>
-      </c>
-      <c r="E13">
-        <v>200</v>
-      </c>
-      <c r="F13">
-        <v>200</v>
-      </c>
-      <c r="G13">
-        <v>200</v>
-      </c>
-      <c r="H13">
-        <v>200</v>
-      </c>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="B2" s="10">
+        <v>200</v>
+      </c>
+      <c r="C2" s="10">
+        <v>200</v>
+      </c>
+      <c r="D2" s="10">
+        <v>200</v>
+      </c>
+      <c r="E2" s="10">
+        <v>200</v>
+      </c>
+      <c r="F2" s="10">
+        <v>200</v>
+      </c>
+      <c r="G2" s="10">
+        <v>200</v>
+      </c>
+      <c r="H2" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="B3" s="10">
+        <v>200</v>
+      </c>
+      <c r="C3" s="10">
+        <v>200</v>
+      </c>
+      <c r="D3" s="10">
+        <v>200</v>
+      </c>
+      <c r="E3" s="10">
+        <v>200</v>
+      </c>
+      <c r="F3" s="10">
+        <v>200</v>
+      </c>
+      <c r="G3" s="10">
+        <v>200</v>
+      </c>
+      <c r="H3" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="B4" s="10">
+        <v>200</v>
+      </c>
+      <c r="C4" s="10">
+        <v>200</v>
+      </c>
+      <c r="D4" s="10">
+        <v>200</v>
+      </c>
+      <c r="E4" s="10">
+        <v>200</v>
+      </c>
+      <c r="F4" s="10">
+        <v>200</v>
+      </c>
+      <c r="G4" s="10">
+        <v>200</v>
+      </c>
+      <c r="H4" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="B5" s="10">
+        <v>200</v>
+      </c>
+      <c r="C5" s="10">
+        <v>200</v>
+      </c>
+      <c r="D5" s="10">
+        <v>200</v>
+      </c>
+      <c r="E5" s="10">
+        <v>200</v>
+      </c>
+      <c r="F5" s="10">
+        <v>200</v>
+      </c>
+      <c r="G5" s="10">
+        <v>200</v>
+      </c>
+      <c r="H5" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>501</v>
+      </c>
+      <c r="B6" s="10">
+        <v>200</v>
+      </c>
+      <c r="C6" s="10">
+        <v>200</v>
+      </c>
+      <c r="D6" s="10">
+        <v>200</v>
+      </c>
+      <c r="E6" s="10">
+        <v>200</v>
+      </c>
+      <c r="F6" s="10">
+        <v>200</v>
+      </c>
+      <c r="G6" s="10">
+        <v>200</v>
+      </c>
+      <c r="H6" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>502</v>
+      </c>
+      <c r="B7" s="10">
+        <v>200</v>
+      </c>
+      <c r="C7" s="10">
+        <v>200</v>
+      </c>
+      <c r="D7" s="10">
+        <v>200</v>
+      </c>
+      <c r="E7" s="10">
+        <v>200</v>
+      </c>
+      <c r="F7" s="10">
+        <v>200</v>
+      </c>
+      <c r="G7" s="10">
+        <v>200</v>
+      </c>
+      <c r="H7" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="B8" s="10">
+        <v>200</v>
+      </c>
+      <c r="C8" s="10">
+        <v>200</v>
+      </c>
+      <c r="D8" s="10">
+        <v>200</v>
+      </c>
+      <c r="E8" s="10">
+        <v>200</v>
+      </c>
+      <c r="F8" s="10">
+        <v>200</v>
+      </c>
+      <c r="G8" s="10">
+        <v>200</v>
+      </c>
+      <c r="H8" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>504</v>
+      </c>
+      <c r="B9" s="10">
+        <v>200</v>
+      </c>
+      <c r="C9" s="10">
+        <v>200</v>
+      </c>
+      <c r="D9" s="10">
+        <v>200</v>
+      </c>
+      <c r="E9" s="10">
+        <v>200</v>
+      </c>
+      <c r="F9" s="10">
+        <v>200</v>
+      </c>
+      <c r="G9" s="10">
+        <v>200</v>
+      </c>
+      <c r="H9" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="B10" s="10">
+        <v>200</v>
+      </c>
+      <c r="C10" s="10">
+        <v>200</v>
+      </c>
+      <c r="D10" s="10">
+        <v>200</v>
+      </c>
+      <c r="E10" s="10">
+        <v>200</v>
+      </c>
+      <c r="F10" s="10">
+        <v>200</v>
+      </c>
+      <c r="G10" s="10">
+        <v>200</v>
+      </c>
+      <c r="H10" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>506</v>
+      </c>
+      <c r="B11" s="10">
+        <v>200</v>
+      </c>
+      <c r="C11" s="10">
+        <v>200</v>
+      </c>
+      <c r="D11" s="10">
+        <v>200</v>
+      </c>
+      <c r="E11" s="10">
+        <v>200</v>
+      </c>
+      <c r="F11" s="10">
+        <v>200</v>
+      </c>
+      <c r="G11" s="10">
+        <v>200</v>
+      </c>
+      <c r="H11" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>507</v>
+      </c>
+      <c r="B12" s="10">
+        <v>200</v>
+      </c>
+      <c r="C12" s="10">
+        <v>200</v>
+      </c>
+      <c r="D12" s="10">
+        <v>200</v>
+      </c>
+      <c r="E12" s="10">
+        <v>200</v>
+      </c>
+      <c r="F12" s="10">
+        <v>200</v>
+      </c>
+      <c r="G12" s="10">
+        <v>200</v>
+      </c>
+      <c r="H12" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>508</v>
+      </c>
+      <c r="B13" s="10">
+        <v>200</v>
+      </c>
+      <c r="C13" s="10">
+        <v>200</v>
+      </c>
+      <c r="D13" s="10">
+        <v>200</v>
+      </c>
+      <c r="E13" s="10">
+        <v>200</v>
+      </c>
+      <c r="F13" s="10">
+        <v>200</v>
+      </c>
+      <c r="G13" s="10">
+        <v>200</v>
+      </c>
+      <c r="H13" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6488,344 +7187,358 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06DF4321-62D8-46CC-809D-E3E73DB3DDEB}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="14.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="E1" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>0.75</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="F2">
-        <v>5</v>
-      </c>
-      <c r="G2">
-        <v>6</v>
-      </c>
-      <c r="H2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>0.76041666666666663</v>
-      </c>
-      <c r="B3">
-        <v>2</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>4</v>
-      </c>
-      <c r="E3">
-        <v>5</v>
-      </c>
-      <c r="F3">
-        <v>6</v>
-      </c>
-      <c r="G3">
-        <v>7</v>
-      </c>
-      <c r="H3">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="B4">
-        <v>3</v>
-      </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-      <c r="D4">
-        <v>5</v>
-      </c>
-      <c r="E4">
-        <v>6</v>
-      </c>
-      <c r="F4">
-        <v>7</v>
-      </c>
-      <c r="G4">
-        <v>8</v>
-      </c>
-      <c r="H4">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>0.78125</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="C5">
-        <v>5</v>
-      </c>
-      <c r="D5">
-        <v>6</v>
-      </c>
-      <c r="E5">
-        <v>7</v>
-      </c>
-      <c r="F5">
-        <v>8</v>
-      </c>
-      <c r="G5">
-        <v>9</v>
-      </c>
-      <c r="H5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="B6">
-        <v>5</v>
-      </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-      <c r="D6">
-        <v>7</v>
-      </c>
-      <c r="E6">
-        <v>8</v>
-      </c>
-      <c r="F6">
-        <v>9</v>
-      </c>
-      <c r="G6">
-        <v>10</v>
-      </c>
-      <c r="H6">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>0.80208333333333337</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>7</v>
-      </c>
-      <c r="D7">
-        <v>8</v>
-      </c>
-      <c r="E7">
-        <v>9</v>
-      </c>
-      <c r="F7">
-        <v>10</v>
-      </c>
-      <c r="G7">
-        <v>11</v>
-      </c>
-      <c r="H7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>0.8125</v>
-      </c>
-      <c r="B8">
-        <v>7</v>
-      </c>
-      <c r="C8">
-        <v>8</v>
-      </c>
-      <c r="D8">
-        <v>9</v>
-      </c>
-      <c r="E8">
-        <v>10</v>
-      </c>
-      <c r="F8">
-        <v>11</v>
-      </c>
-      <c r="G8">
-        <v>12</v>
-      </c>
-      <c r="H8">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>0.82291666666666663</v>
-      </c>
-      <c r="B9">
-        <v>8</v>
-      </c>
-      <c r="D9">
-        <v>10</v>
-      </c>
-      <c r="E9">
-        <v>11</v>
-      </c>
-      <c r="F9">
-        <v>12</v>
-      </c>
-      <c r="G9">
-        <v>13</v>
-      </c>
-      <c r="H9">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-      <c r="C10">
-        <v>10</v>
-      </c>
-      <c r="E10">
-        <v>12</v>
-      </c>
-      <c r="F10">
-        <v>13</v>
-      </c>
-      <c r="G10">
-        <v>14</v>
-      </c>
-      <c r="H10">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>0.84375</v>
-      </c>
-      <c r="B11">
-        <v>10</v>
-      </c>
-      <c r="C11">
-        <v>11</v>
-      </c>
-      <c r="D11">
-        <v>16</v>
-      </c>
-      <c r="E11" t="s">
-        <v>315</v>
-      </c>
-      <c r="F11">
-        <v>14</v>
-      </c>
-      <c r="G11">
-        <v>15</v>
-      </c>
-      <c r="H11">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>0.85416666666666663</v>
-      </c>
-      <c r="B12">
-        <v>11</v>
-      </c>
-      <c r="C12">
-        <v>12</v>
-      </c>
-      <c r="D12">
-        <v>13</v>
-      </c>
-      <c r="E12">
-        <v>14</v>
-      </c>
-      <c r="G12">
-        <v>16</v>
-      </c>
-      <c r="H12">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>0.86458333333333337</v>
-      </c>
-      <c r="B13">
-        <v>12</v>
-      </c>
-      <c r="C13">
-        <v>13</v>
-      </c>
-      <c r="D13">
-        <v>14</v>
-      </c>
-      <c r="E13">
-        <v>15</v>
-      </c>
-      <c r="F13">
-        <v>16</v>
-      </c>
-      <c r="H13">
-        <v>18</v>
-      </c>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>509</v>
+      </c>
+      <c r="B2" s="10">
+        <v>200</v>
+      </c>
+      <c r="C2" s="10">
+        <v>200</v>
+      </c>
+      <c r="D2" s="10">
+        <v>200</v>
+      </c>
+      <c r="E2" s="10">
+        <v>200</v>
+      </c>
+      <c r="F2" s="10">
+        <v>200</v>
+      </c>
+      <c r="G2" s="10">
+        <v>200</v>
+      </c>
+      <c r="H2" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>510</v>
+      </c>
+      <c r="B3" s="10">
+        <v>200</v>
+      </c>
+      <c r="C3" s="10">
+        <v>200</v>
+      </c>
+      <c r="D3" s="10">
+        <v>200</v>
+      </c>
+      <c r="E3" s="10">
+        <v>200</v>
+      </c>
+      <c r="F3" s="10">
+        <v>200</v>
+      </c>
+      <c r="G3" s="10">
+        <v>200</v>
+      </c>
+      <c r="H3" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>511</v>
+      </c>
+      <c r="B4" s="10">
+        <v>200</v>
+      </c>
+      <c r="C4" s="10">
+        <v>200</v>
+      </c>
+      <c r="D4" s="10">
+        <v>200</v>
+      </c>
+      <c r="E4" s="10">
+        <v>200</v>
+      </c>
+      <c r="F4" s="10">
+        <v>200</v>
+      </c>
+      <c r="G4" s="10">
+        <v>200</v>
+      </c>
+      <c r="H4" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>512</v>
+      </c>
+      <c r="B5" s="10">
+        <v>200</v>
+      </c>
+      <c r="C5" s="10">
+        <v>200</v>
+      </c>
+      <c r="D5" s="10">
+        <v>200</v>
+      </c>
+      <c r="E5" s="10">
+        <v>200</v>
+      </c>
+      <c r="F5" s="10">
+        <v>200</v>
+      </c>
+      <c r="G5" s="10">
+        <v>200</v>
+      </c>
+      <c r="H5" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>513</v>
+      </c>
+      <c r="B6" s="10">
+        <v>200</v>
+      </c>
+      <c r="C6" s="10">
+        <v>200</v>
+      </c>
+      <c r="D6" s="10">
+        <v>200</v>
+      </c>
+      <c r="E6" s="10">
+        <v>200</v>
+      </c>
+      <c r="F6" s="10">
+        <v>200</v>
+      </c>
+      <c r="G6" s="10">
+        <v>200</v>
+      </c>
+      <c r="H6" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>514</v>
+      </c>
+      <c r="B7" s="10">
+        <v>200</v>
+      </c>
+      <c r="C7" s="10">
+        <v>200</v>
+      </c>
+      <c r="D7" s="10">
+        <v>200</v>
+      </c>
+      <c r="E7" s="10">
+        <v>200</v>
+      </c>
+      <c r="F7" s="10">
+        <v>200</v>
+      </c>
+      <c r="G7" s="10">
+        <v>200</v>
+      </c>
+      <c r="H7" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>515</v>
+      </c>
+      <c r="B8" s="10">
+        <v>200</v>
+      </c>
+      <c r="C8" s="10">
+        <v>200</v>
+      </c>
+      <c r="D8" s="10">
+        <v>200</v>
+      </c>
+      <c r="E8" s="10">
+        <v>200</v>
+      </c>
+      <c r="F8" s="10">
+        <v>200</v>
+      </c>
+      <c r="G8" s="10">
+        <v>200</v>
+      </c>
+      <c r="H8" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>516</v>
+      </c>
+      <c r="B9" s="10">
+        <v>200</v>
+      </c>
+      <c r="C9" s="10">
+        <v>200</v>
+      </c>
+      <c r="D9" s="10">
+        <v>200</v>
+      </c>
+      <c r="E9" s="10">
+        <v>200</v>
+      </c>
+      <c r="F9" s="10">
+        <v>200</v>
+      </c>
+      <c r="G9" s="10">
+        <v>200</v>
+      </c>
+      <c r="H9" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>517</v>
+      </c>
+      <c r="B10" s="10">
+        <v>200</v>
+      </c>
+      <c r="C10" s="10">
+        <v>200</v>
+      </c>
+      <c r="D10" s="10">
+        <v>200</v>
+      </c>
+      <c r="E10" s="10">
+        <v>200</v>
+      </c>
+      <c r="F10" s="10">
+        <v>200</v>
+      </c>
+      <c r="G10" s="10">
+        <v>200</v>
+      </c>
+      <c r="H10" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>518</v>
+      </c>
+      <c r="B11" s="10">
+        <v>200</v>
+      </c>
+      <c r="C11" s="10">
+        <v>200</v>
+      </c>
+      <c r="D11" s="10">
+        <v>200</v>
+      </c>
+      <c r="E11" s="10">
+        <v>200</v>
+      </c>
+      <c r="F11" s="10">
+        <v>200</v>
+      </c>
+      <c r="G11" s="10">
+        <v>200</v>
+      </c>
+      <c r="H11" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>519</v>
+      </c>
+      <c r="B12" s="10">
+        <v>200</v>
+      </c>
+      <c r="C12" s="10">
+        <v>200</v>
+      </c>
+      <c r="D12" s="10">
+        <v>200</v>
+      </c>
+      <c r="E12" s="10">
+        <v>200</v>
+      </c>
+      <c r="F12" s="10">
+        <v>200</v>
+      </c>
+      <c r="G12" s="10">
+        <v>200</v>
+      </c>
+      <c r="H12" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>520</v>
+      </c>
+      <c r="B13" s="10">
+        <v>200</v>
+      </c>
+      <c r="C13" s="10">
+        <v>200</v>
+      </c>
+      <c r="D13" s="10">
+        <v>200</v>
+      </c>
+      <c r="E13" s="10">
+        <v>200</v>
+      </c>
+      <c r="F13" s="10">
+        <v>200</v>
+      </c>
+      <c r="G13" s="10">
+        <v>200</v>
+      </c>
+      <c r="H13" s="10">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6834,142 +7547,214 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23A25666-08B9-424F-84A2-61B4C5A903D3}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="B2" sqref="B2:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.28515625" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="E1" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>0.875</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>521</v>
+      </c>
+      <c r="B2" s="10">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>0.88541666666666663</v>
-      </c>
-      <c r="C3">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>522</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="D4">
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>523</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>0.90625</v>
-      </c>
-      <c r="E5">
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>524</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>0.91666666666666663</v>
-      </c>
-      <c r="F6">
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>525</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>0.92708333333333337</v>
-      </c>
-      <c r="G7">
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>526</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>0.9375</v>
-      </c>
-      <c r="H8">
+      <c r="H7" s="10"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>527</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10">
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>0.94791666666666663</v>
-      </c>
-      <c r="G9">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>528</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>0.95833333333333337</v>
-      </c>
-      <c r="F10">
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>529</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>0.96875</v>
-      </c>
-      <c r="E11">
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>530</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>0.97916666666666663</v>
-      </c>
-      <c r="D12">
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>531</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>0.98958333333333337</v>
-      </c>
-      <c r="C13">
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>532</v>
+      </c>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10">
         <v>5</v>
       </c>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6978,144 +7763,216 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BB3F928-52E6-4257-B18E-8C6D95855DB4}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B2" sqref="B2:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.140625" customWidth="1"/>
-    <col min="3" max="3" width="11.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="E1" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>0</v>
-      </c>
-      <c r="B2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>533</v>
+      </c>
+      <c r="B2" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>1.0416666666666666E-2</v>
-      </c>
-      <c r="C3">
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="10"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="D4">
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>535</v>
+      </c>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10">
         <v>30</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>3.125E-2</v>
-      </c>
-      <c r="E5">
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10">
         <v>40</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="10">
         <v>50</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="G6">
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>537</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>5.2083333333333336E-2</v>
-      </c>
-      <c r="H7">
+      <c r="H6" s="10"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10">
         <v>70</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>6.25E-2</v>
-      </c>
-      <c r="G8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>539</v>
+      </c>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>7.2916666666666671E-2</v>
-      </c>
-      <c r="F9">
+      <c r="H8" s="10"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>540</v>
+      </c>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>8.3333333333333329E-2</v>
-      </c>
-      <c r="E10">
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>541</v>
+      </c>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>9.375E-2</v>
-      </c>
-      <c r="D11">
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>542</v>
+      </c>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10">
         <v>30</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>0.10416666666666667</v>
-      </c>
-      <c r="C12">
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>543</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="C12" s="10">
         <v>20</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>0.11458333333333333</v>
-      </c>
-      <c r="B13">
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>544</v>
+      </c>
+      <c r="B13" s="10">
         <v>10</v>
       </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7124,358 +7981,613 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3ABFA0BF-F4D7-46C1-9AAE-3D17472D45DA}">
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H13"/>
+      <selection activeCell="B2" sqref="B2:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="3" max="3" width="10.85546875" customWidth="1"/>
-    <col min="6" max="7" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>308</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="E1" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>440</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>0.125</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>0.13541666666666666</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="E3">
-        <v>1</v>
-      </c>
-      <c r="F3">
-        <v>1</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>0.14583333333333334</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>0.15625</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
-        <v>0.16666666666666666</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
-        <v>0.17708333333333334</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
-        <v>0.1875</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
-        <v>0.19791666666666666</v>
-      </c>
-      <c r="B9">
-        <v>1</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>0.20833333333333334</v>
-      </c>
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
-        <v>0.21875</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>0.22916666666666666</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="G12">
-        <v>1</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
-        <v>0.23958333333333334</v>
-      </c>
-      <c r="B13">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="11" t="s">
+        <v>545</v>
+      </c>
+      <c r="B2" s="10">
+        <v>1</v>
+      </c>
+      <c r="C2" s="10">
+        <v>1</v>
+      </c>
+      <c r="D2" s="10">
+        <v>1</v>
+      </c>
+      <c r="E2" s="10">
+        <v>1</v>
+      </c>
+      <c r="F2" s="10">
+        <v>1</v>
+      </c>
+      <c r="G2" s="10">
+        <v>1</v>
+      </c>
+      <c r="H2" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>546</v>
+      </c>
+      <c r="B3" s="10">
+        <v>1</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10">
+        <v>1</v>
+      </c>
+      <c r="G3" s="10">
+        <v>1</v>
+      </c>
+      <c r="H3" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="11" t="s">
+        <v>547</v>
+      </c>
+      <c r="B4" s="10">
+        <v>1</v>
+      </c>
+      <c r="C4" s="10">
+        <v>1</v>
+      </c>
+      <c r="D4" s="10">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10">
+        <v>1</v>
+      </c>
+      <c r="F4" s="10">
+        <v>1</v>
+      </c>
+      <c r="G4" s="10">
+        <v>1</v>
+      </c>
+      <c r="H4" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="11" t="s">
+        <v>548</v>
+      </c>
+      <c r="B5" s="10">
+        <v>1</v>
+      </c>
+      <c r="C5" s="10">
+        <v>1</v>
+      </c>
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10">
+        <v>1</v>
+      </c>
+      <c r="F5" s="10">
+        <v>1</v>
+      </c>
+      <c r="G5" s="10">
+        <v>1</v>
+      </c>
+      <c r="H5" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
+        <v>549</v>
+      </c>
+      <c r="B6" s="10">
+        <v>1</v>
+      </c>
+      <c r="C6" s="10">
+        <v>1</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10">
+        <v>1</v>
+      </c>
+      <c r="F6" s="10">
+        <v>1</v>
+      </c>
+      <c r="G6" s="10">
+        <v>1</v>
+      </c>
+      <c r="H6" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="11" t="s">
+        <v>550</v>
+      </c>
+      <c r="B7" s="10">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10">
+        <v>1</v>
+      </c>
+      <c r="D7" s="10">
+        <v>1</v>
+      </c>
+      <c r="E7" s="10">
+        <v>1</v>
+      </c>
+      <c r="F7" s="10">
+        <v>1</v>
+      </c>
+      <c r="G7" s="10">
+        <v>1</v>
+      </c>
+      <c r="H7" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="11" t="s">
+        <v>551</v>
+      </c>
+      <c r="B8" s="10">
+        <v>1</v>
+      </c>
+      <c r="C8" s="10">
+        <v>1</v>
+      </c>
+      <c r="D8" s="10">
+        <v>1</v>
+      </c>
+      <c r="E8" s="10">
+        <v>1</v>
+      </c>
+      <c r="F8" s="10">
+        <v>1</v>
+      </c>
+      <c r="G8" s="10">
+        <v>1</v>
+      </c>
+      <c r="H8" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="11" t="s">
+        <v>552</v>
+      </c>
+      <c r="B9" s="10">
+        <v>1</v>
+      </c>
+      <c r="C9" s="10">
+        <v>1</v>
+      </c>
+      <c r="D9" s="10">
+        <v>1</v>
+      </c>
+      <c r="E9" s="10">
+        <v>1</v>
+      </c>
+      <c r="F9" s="10">
+        <v>1</v>
+      </c>
+      <c r="G9" s="10">
+        <v>1</v>
+      </c>
+      <c r="H9" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="11" t="s">
+        <v>553</v>
+      </c>
+      <c r="B10" s="10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="10">
+        <v>1</v>
+      </c>
+      <c r="D10" s="10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="10">
+        <v>1</v>
+      </c>
+      <c r="G10" s="10">
+        <v>1</v>
+      </c>
+      <c r="H10" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="11" t="s">
+        <v>554</v>
+      </c>
+      <c r="B11" s="10">
+        <v>1</v>
+      </c>
+      <c r="C11" s="10">
+        <v>1</v>
+      </c>
+      <c r="D11" s="10">
+        <v>1</v>
+      </c>
+      <c r="E11" s="10">
+        <v>1</v>
+      </c>
+      <c r="F11" s="10">
+        <v>1</v>
+      </c>
+      <c r="G11" s="10">
+        <v>1</v>
+      </c>
+      <c r="H11" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
+        <v>555</v>
+      </c>
+      <c r="B12" s="10">
+        <v>1</v>
+      </c>
+      <c r="C12" s="10">
+        <v>1</v>
+      </c>
+      <c r="D12" s="10">
+        <v>1</v>
+      </c>
+      <c r="E12" s="10">
+        <v>1</v>
+      </c>
+      <c r="F12" s="10">
+        <v>1</v>
+      </c>
+      <c r="G12" s="10">
+        <v>1</v>
+      </c>
+      <c r="H12" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>556</v>
+      </c>
+      <c r="B13" s="10">
+        <v>1</v>
+      </c>
+      <c r="C13" s="10">
+        <v>1</v>
+      </c>
+      <c r="D13" s="10">
+        <v>1</v>
+      </c>
+      <c r="E13" s="10">
+        <v>1</v>
+      </c>
+      <c r="F13" s="10">
+        <v>1</v>
+      </c>
+      <c r="G13" s="10">
+        <v>1</v>
+      </c>
+      <c r="H13" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001745E761B3C3A24E926F64B59D900B22" ma:contentTypeVersion="12" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="eb8e82df45bbd54c89eadd5758dab498">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="acea2287-692c-4a79-b04c-20964ce058aa" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0818640e65da351a8901a44c8b1fd27d" ns3:_="">
+    <xsd:import namespace="acea2287-692c-4a79-b04c-20964ce058aa"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns3:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceObjectDetectorVersions" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaServiceSystemTags" minOccurs="0"/>
+                <xsd:element ref="ns3:_activity" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="acea2287-692c-4a79-b04c-20964ce058aa" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="14" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="15" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="16" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="17" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceSystemTags" ma:index="18" nillable="true" ma:displayName="MediaServiceSystemTags" ma:hidden="true" ma:internalName="MediaServiceSystemTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_activity" ma:index="19" nillable="true" ma:displayName="_activity" ma:hidden="true" ma:internalName="_activity">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="acea2287-692c-4a79-b04c-20964ce058aa" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE8E09D2-1A7F-493E-BB99-3475096E91F4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D87E6772-C843-40C9-87ED-C359E189D56E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="acea2287-692c-4a79-b04c-20964ce058aa"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0F49315-5B74-4029-A64F-D9C03980A5B8}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="acea2287-692c-4a79-b04c-20964ce058aa"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>